--- a/GSD/Water Samples/LaJara_LISST_GSD_Spring2023.xlsx
+++ b/GSD/Water Samples/LaJara_LISST_GSD_Spring2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - University of Idaho\Desktop\Research\La Jara Data\LISST GSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\Water Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C211704B-6023-4758-8096-0C4CAC9975B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52E5AF-9546-45EE-B83E-2E1A8B727EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{99C89BF0-5701-4EDE-976A-2DC8AC06B2E1}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{99C89BF0-5701-4EDE-976A-2DC8AC06B2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ISCO 1 (down)" sheetId="1" r:id="rId1"/>
@@ -1329,6 +1329,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1348,15 +1357,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1675,46 +1675,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4F41F3-2406-4DBC-AD18-012969672032}">
   <dimension ref="A2:O152"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="D15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="I2" s="29" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="16" t="s">
@@ -1750,7 +1750,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>141</v>
       </c>
       <c r="J4" s="3">
-        <v>45033</v>
+        <v>45033.6875</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>144</v>
       </c>
       <c r="J5" s="3">
-        <v>45033</v>
+        <v>45033.854166666664</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>131</v>
       </c>
@@ -1864,8 +1864,8 @@
       <c r="I6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="21">
-        <v>45034</v>
+      <c r="J6" s="3">
+        <v>45034.020833333336</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="3">
-        <v>45034</v>
+        <v>45034.1875</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>175</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>96</v>
       </c>
       <c r="J8" s="3">
-        <v>45034</v>
+        <v>45034.354166666664</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>177</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>131</v>
       </c>
       <c r="J9" s="3">
-        <v>45034</v>
+        <v>45034.520833333336</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>192</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>117</v>
       </c>
       <c r="J10" s="9">
-        <v>45034</v>
+        <v>45034.6875</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>199</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>114</v>
       </c>
       <c r="J11" s="9">
-        <v>45034</v>
+        <v>45034.895833333336</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>129</v>
       </c>
       <c r="J12" s="9">
-        <v>45035</v>
+        <v>45035.104166666664</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>120</v>
       </c>
       <c r="J13" s="3">
-        <v>45035</v>
+        <v>45035.3125</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>109</v>
       </c>
       <c r="J14" s="3">
-        <v>45035</v>
+        <v>45035.520833333336</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>135</v>
       </c>
       <c r="J15" s="9">
-        <v>45036</v>
+        <v>45036.666666666664</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>194</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>127</v>
       </c>
       <c r="J16" s="3">
-        <v>45036</v>
+        <v>45036.770833333336</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>117</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>121</v>
       </c>
       <c r="J17" s="9">
-        <v>45036</v>
+        <v>45036.979166666664</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>141</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>138</v>
       </c>
       <c r="J18" s="9">
-        <v>45037</v>
+        <v>45037.1875</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>127</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>134</v>
       </c>
       <c r="J19" s="9">
-        <v>45037</v>
+        <v>45037.395833333336</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>114</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>141</v>
       </c>
       <c r="J20" s="9">
-        <v>45037</v>
+        <v>45037.604166666664</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>134</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>119</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>135</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>196</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>201</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>109</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>138</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>121</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>179</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>184</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>186</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>144</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>136</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>91</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>117</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>182</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>129</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>135</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>121</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>127</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>138</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>134</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>141</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>144</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>110</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>131</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>91</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>117</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>119</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>108</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>109</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>108</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>120</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>121</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>127</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>220</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>221</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>222</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>114</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>227</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>229</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>135</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>109</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>141</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>117</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>232</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>234</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>236</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>129</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>138</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>134</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>238</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>240</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>242</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>121</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>129</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>245</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>247</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>249</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>120</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -5518,7 +5518,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -5527,7 +5527,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -5536,7 +5536,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -5545,7 +5545,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -5554,7 +5554,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -5563,7 +5563,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -5572,7 +5572,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -5581,7 +5581,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -5590,7 +5590,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -5599,7 +5599,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -5608,7 +5608,7 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -5617,46 +5617,46 @@
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A3:N100" xr:uid="{DC4F41F3-2406-4DBC-AD18-012969672032}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N100">
@@ -5675,35 +5675,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47770336-139B-4E1D-B90D-A41F00945441}">
   <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="6">
+        <v>45040</v>
+      </c>
+      <c r="L2" s="2">
+        <v>253</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="23">
+        <v>96.2</v>
+      </c>
+      <c r="O2" s="23">
+        <v>27.12</v>
+      </c>
+      <c r="P2" s="23">
+        <v>48.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5719,10 +5741,10 @@
       <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="30" t="s">
         <v>337</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -5741,7 +5763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5763,29 +5785,29 @@
       <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45033</v>
+      <c r="J4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="9">
+        <v>45033.6875</v>
       </c>
       <c r="L4" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="23">
-        <v>97.05</v>
+        <v>93.4</v>
       </c>
       <c r="O4" s="23">
-        <v>73.675000000000011</v>
+        <v>103.30500000000001</v>
       </c>
       <c r="P4" s="23">
-        <v>91.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>81.800000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5807,29 +5829,29 @@
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="9">
-        <v>45033</v>
+      <c r="J5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="15">
+        <v>45033.854166666664</v>
       </c>
       <c r="L5" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="23">
-        <v>93.4</v>
+        <v>94.4</v>
       </c>
       <c r="O5" s="23">
-        <v>103.30500000000001</v>
+        <v>65.48</v>
       </c>
       <c r="P5" s="23">
-        <v>81.800000000000011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5851,29 +5873,29 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="15">
-        <v>45033</v>
+      <c r="J6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="3">
+        <v>45034.020833333336</v>
       </c>
       <c r="L6" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="23">
-        <v>94.4</v>
+        <v>97.05</v>
       </c>
       <c r="O6" s="23">
-        <v>65.48</v>
+        <v>73.675000000000011</v>
       </c>
       <c r="P6" s="23">
-        <v>51.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
@@ -5895,32 +5917,32 @@
       <c r="G7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="3">
-        <v>45034</v>
-      </c>
-      <c r="L7" s="38">
-        <v>211</v>
+      <c r="J7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="9">
+        <v>45034.1875</v>
+      </c>
+      <c r="L7" s="2">
+        <v>193</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="23" t="s">
-        <v>64</v>
+      <c r="N7" s="23">
+        <v>96.9</v>
       </c>
       <c r="O7" s="23">
-        <v>0</v>
+        <v>48.895000000000003</v>
       </c>
       <c r="P7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>58.709999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
@@ -5942,30 +5964,30 @@
       <c r="G8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="J8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="9">
-        <v>45034</v>
-      </c>
-      <c r="L8" s="2">
-        <v>193</v>
+      <c r="H8" s="37"/>
+      <c r="J8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="3">
+        <v>45034.354166666664</v>
+      </c>
+      <c r="L8" s="31">
+        <v>211</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="23">
-        <v>96.9</v>
+      <c r="N8" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O8" s="23">
-        <v>48.895000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" s="23">
-        <v>58.709999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
@@ -5987,12 +6009,12 @@
       <c r="G9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="37"/>
       <c r="J9" s="2" t="s">
         <v>133</v>
       </c>
       <c r="K9" s="9">
-        <v>45034</v>
+        <v>45034.520833333336</v>
       </c>
       <c r="L9" s="2">
         <v>212</v>
@@ -6010,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
@@ -6032,12 +6054,12 @@
       <c r="G10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="37"/>
       <c r="J10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K10" s="9">
-        <v>45034</v>
+        <v>45034.6875</v>
       </c>
       <c r="L10" s="2">
         <v>213</v>
@@ -6055,7 +6077,7 @@
         <v>56.024999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
@@ -6077,12 +6099,12 @@
       <c r="G11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="34"/>
+      <c r="H11" s="37"/>
       <c r="J11" s="12" t="s">
         <v>142</v>
       </c>
       <c r="K11" s="13">
-        <v>45034</v>
+        <v>45034.895833333336</v>
       </c>
       <c r="L11" s="2">
         <v>214</v>
@@ -6100,7 +6122,7 @@
         <v>66.137500000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
@@ -6122,30 +6144,30 @@
       <c r="G12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="J12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="6">
-        <v>45035</v>
+      <c r="H12" s="37"/>
+      <c r="J12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="9">
+        <v>45035.104166666664</v>
       </c>
       <c r="L12" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="23">
-        <v>96.800000000000011</v>
+        <v>96.633333333333326</v>
       </c>
       <c r="O12" s="23">
-        <v>22.36</v>
+        <v>47.579999999999991</v>
       </c>
       <c r="P12" s="23">
-        <v>38.814999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57.156666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
@@ -6167,30 +6189,30 @@
       <c r="G13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="J13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="6">
-        <v>45035</v>
+      <c r="H13" s="37"/>
+      <c r="J13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="9">
+        <v>45035.3125</v>
       </c>
       <c r="L13" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="23" t="s">
-        <v>64</v>
+      <c r="N13" s="23">
+        <v>97.066666666666677</v>
       </c>
       <c r="O13" s="23">
-        <v>0</v>
+        <v>30.72</v>
       </c>
       <c r="P13" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>47.137500000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>27</v>
       </c>
@@ -6212,30 +6234,30 @@
       <c r="G14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="J14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="9">
-        <v>45035</v>
+      <c r="H14" s="37"/>
+      <c r="J14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="11">
+        <v>45035.520833333336</v>
       </c>
       <c r="L14" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="23">
-        <v>97.066666666666677</v>
+      <c r="N14" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="O14" s="23">
-        <v>30.72</v>
+        <v>0</v>
       </c>
       <c r="P14" s="23">
-        <v>47.137500000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
@@ -6257,30 +6279,30 @@
       <c r="G15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="J15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="9">
-        <v>45035</v>
+      <c r="H15" s="37"/>
+      <c r="J15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="6">
+        <v>45035.729166666664</v>
       </c>
       <c r="L15" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="23">
-        <v>96.633333333333326</v>
+      <c r="N15" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O15" s="23">
-        <v>47.579999999999991</v>
+        <v>0</v>
       </c>
       <c r="P15" s="23">
-        <v>57.156666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>29</v>
       </c>
@@ -6302,30 +6324,30 @@
       <c r="G16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="J16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="11">
-        <v>45035</v>
+      <c r="H16" s="37"/>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="6">
+        <v>45035.9375</v>
       </c>
       <c r="L16" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="23" t="s">
-        <v>68</v>
+      <c r="N16" s="23">
+        <v>96.800000000000011</v>
       </c>
       <c r="O16" s="23">
-        <v>0</v>
+        <v>22.36</v>
       </c>
       <c r="P16" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38.814999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>30</v>
       </c>
@@ -6347,30 +6369,30 @@
       <c r="G17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="J17" s="7" t="s">
-        <v>9</v>
+      <c r="H17" s="37"/>
+      <c r="J17" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="K17" s="6">
-        <v>45036</v>
+        <v>45036.145833333336</v>
       </c>
       <c r="L17" s="2">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="23">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="O17" s="23">
-        <v>24.91</v>
+        <v>30.83</v>
       </c>
       <c r="P17" s="23">
-        <v>58.21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>40</v>
       </c>
@@ -6392,30 +6414,30 @@
       <c r="G18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="J18" s="5" t="s">
-        <v>115</v>
+      <c r="H18" s="37"/>
+      <c r="J18" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K18" s="6">
-        <v>45036</v>
+        <v>45036.354166666664</v>
       </c>
       <c r="L18" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="23">
-        <v>96.8</v>
+      <c r="N18" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O18" s="23">
-        <v>30.83</v>
+        <v>0</v>
       </c>
       <c r="P18" s="23">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>41</v>
       </c>
@@ -6437,15 +6459,15 @@
       <c r="G19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="37"/>
       <c r="J19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="6">
-        <v>45036</v>
+        <v>104</v>
+      </c>
+      <c r="K19" s="9">
+        <v>45036.770833333336</v>
       </c>
       <c r="L19" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -6460,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>42</v>
       </c>
@@ -6482,30 +6504,30 @@
       <c r="G20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="J20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="9">
-        <v>45036</v>
+      <c r="H20" s="37"/>
+      <c r="J20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="6">
+        <v>45036.979166666664</v>
       </c>
       <c r="L20" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="23" t="s">
-        <v>64</v>
+      <c r="N20" s="23">
+        <v>97</v>
       </c>
       <c r="O20" s="23">
-        <v>0</v>
+        <v>24.91</v>
       </c>
       <c r="P20" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>58.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>43</v>
       </c>
@@ -6527,12 +6549,12 @@
       <c r="G21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="37"/>
       <c r="J21" s="7" t="s">
         <v>81</v>
       </c>
       <c r="K21" s="6">
-        <v>45037</v>
+        <v>45037.395833333336</v>
       </c>
       <c r="L21" s="2">
         <v>238</v>
@@ -6550,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
@@ -6572,12 +6594,12 @@
       <c r="G22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="37"/>
       <c r="J22" s="7" t="s">
         <v>95</v>
       </c>
       <c r="K22" s="6">
-        <v>45037</v>
+        <v>45037.604166666664</v>
       </c>
       <c r="L22" s="2">
         <v>239</v>
@@ -6595,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>45</v>
       </c>
@@ -6617,12 +6639,12 @@
       <c r="G23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="37"/>
       <c r="J23" s="12" t="s">
         <v>77</v>
       </c>
       <c r="K23" s="13">
-        <v>45037</v>
+        <v>45037.8125</v>
       </c>
       <c r="L23" s="2">
         <v>240</v>
@@ -6640,7 +6662,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>47</v>
       </c>
@@ -6662,30 +6684,30 @@
       <c r="G24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="J24" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K24" s="11">
-        <v>45038</v>
+      <c r="H24" s="37"/>
+      <c r="J24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="15">
+        <v>45038.020833333336</v>
       </c>
       <c r="L24" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="23">
-        <v>96.974999999999994</v>
+      <c r="N24" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="O24" s="23">
-        <v>51.682499999999997</v>
+        <v>0</v>
       </c>
       <c r="P24" s="23">
-        <v>80.920000000000016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>48</v>
       </c>
@@ -6707,30 +6729,30 @@
       <c r="G25" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="37"/>
       <c r="J25" s="10" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K25" s="11">
-        <v>45038</v>
+        <v>45038.229166666664</v>
       </c>
       <c r="L25" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="23" t="s">
-        <v>68</v>
+      <c r="N25" s="23">
+        <v>96.974999999999994</v>
       </c>
       <c r="O25" s="23">
-        <v>0</v>
+        <v>51.682499999999997</v>
       </c>
       <c r="P25" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80.920000000000016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -6752,32 +6774,32 @@
       <c r="G26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K26" s="15">
-        <v>45038</v>
+      <c r="J26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="11">
+        <v>45038.4375</v>
       </c>
       <c r="L26" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
-      <c r="N26" s="23">
-        <v>96.333333333333329</v>
+      <c r="N26" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="O26" s="23">
-        <v>57.56</v>
+        <v>0</v>
       </c>
       <c r="P26" s="23">
-        <v>65.026666666666657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>52</v>
       </c>
@@ -6799,30 +6821,30 @@
       <c r="G27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="J27" s="2" t="s">
-        <v>113</v>
+      <c r="H27" s="34"/>
+      <c r="J27" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="K27" s="15">
-        <v>45038</v>
+        <v>45038.645833333336</v>
       </c>
       <c r="L27" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
       </c>
-      <c r="N27" s="23" t="s">
-        <v>68</v>
+      <c r="N27" s="23">
+        <v>96.333333333333329</v>
       </c>
       <c r="O27" s="23">
-        <v>0</v>
+        <v>57.56</v>
       </c>
       <c r="P27" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65.026666666666657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
@@ -6844,30 +6866,30 @@
       <c r="G28" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="J28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="6">
-        <v>45039</v>
+      <c r="H28" s="34"/>
+      <c r="J28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="11">
+        <v>45038.854166666664</v>
       </c>
       <c r="L28" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
-      <c r="N28" s="23" t="s">
-        <v>64</v>
+      <c r="N28" s="23">
+        <v>95.375000000000014</v>
       </c>
       <c r="O28" s="23">
-        <v>0</v>
+        <v>63.535000000000011</v>
       </c>
       <c r="P28" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>59.204999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>59</v>
       </c>
@@ -6889,15 +6911,15 @@
       <c r="G29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="J29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="11">
-        <v>45039</v>
+      <c r="H29" s="34"/>
+      <c r="J29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="15">
+        <v>45039.0625</v>
       </c>
       <c r="L29" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -6912,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>61</v>
       </c>
@@ -6934,30 +6956,30 @@
       <c r="G30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="J30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="11">
-        <v>45039</v>
+      <c r="H30" s="34"/>
+      <c r="J30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="13">
+        <v>45039.479166666664</v>
       </c>
       <c r="L30" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30" s="23">
-        <v>95.375000000000014</v>
+      <c r="N30" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="O30" s="23">
-        <v>63.535000000000011</v>
+        <v>0</v>
       </c>
       <c r="P30" s="23">
-        <v>59.204999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -6981,13 +7003,13 @@
       </c>
       <c r="H31" s="20"/>
       <c r="J31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" s="13">
+        <v>69</v>
+      </c>
+      <c r="K31" s="11">
         <v>45039</v>
       </c>
       <c r="L31" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -7002,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -7025,20 +7047,20 @@
         <v>66</v>
       </c>
       <c r="H32" s="20"/>
-      <c r="J32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="15">
+      <c r="J32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="6">
         <v>45039</v>
       </c>
       <c r="L32" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O32" s="23">
         <v>0</v>
@@ -7047,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -7069,29 +7091,29 @@
       <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="J33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="9">
         <v>45040</v>
       </c>
       <c r="L33" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
       </c>
       <c r="N33" s="23">
-        <v>96.2</v>
+        <v>97.3</v>
       </c>
       <c r="O33" s="23">
-        <v>27.12</v>
+        <v>66.586666666666673</v>
       </c>
       <c r="P33" s="23">
-        <v>48.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>69.806666666666658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -7138,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -7160,29 +7182,29 @@
       <c r="G35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" s="6">
+      <c r="J35" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="15">
         <v>45040</v>
       </c>
       <c r="L35" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
       </c>
       <c r="N35" s="23">
-        <v>97.05</v>
+        <v>96.533333333333346</v>
       </c>
       <c r="O35" s="23">
-        <v>14.59</v>
+        <v>46.75</v>
       </c>
       <c r="P35" s="23">
-        <v>25.344999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>59.133333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -7207,29 +7229,29 @@
       <c r="H36" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K36" s="9">
-        <v>45040</v>
+      <c r="J36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="6">
+        <v>45041</v>
       </c>
       <c r="L36" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="N36" s="23">
-        <v>97.3</v>
+      <c r="N36" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O36" s="23">
-        <v>66.586666666666673</v>
+        <v>0</v>
       </c>
       <c r="P36" s="23">
-        <v>69.806666666666658</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -7251,29 +7273,29 @@
       <c r="G37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K37" s="15">
+      <c r="J37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="6">
         <v>45040</v>
       </c>
       <c r="L37" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
       </c>
       <c r="N37" s="23">
-        <v>96.533333333333346</v>
+        <v>97.05</v>
       </c>
       <c r="O37" s="23">
-        <v>46.75</v>
+        <v>14.59</v>
       </c>
       <c r="P37" s="23">
-        <v>59.133333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>25.344999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
@@ -7295,14 +7317,14 @@
       <c r="G38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" s="6">
+      <c r="J38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="9">
         <v>45041</v>
       </c>
       <c r="L38" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -7317,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
@@ -7339,29 +7361,8 @@
       <c r="G39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K39" s="9">
-        <v>45041</v>
-      </c>
-      <c r="L39" s="2">
-        <v>270</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O39" s="23">
-        <v>0</v>
-      </c>
-      <c r="P39" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -7405,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -7449,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
@@ -7537,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>89</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>77</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>99</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>101</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>47.98</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -7977,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>123</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>106</v>
       </c>
@@ -8109,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>79.88</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>115</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>133</v>
       </c>
@@ -8285,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>140</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>53.17</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>102</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>51</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>95</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>142</v>
       </c>
@@ -8505,7 +8506,7 @@
         <v>87.02</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>9</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>102</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>87</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>88</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>142</v>
       </c>
@@ -8769,7 +8770,7 @@
         <v>49.949999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>104</v>
       </c>
@@ -8813,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>89</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>30.57</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>81</v>
       </c>
@@ -8901,7 +8902,7 @@
         <v>26.823333333333334</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>87</v>
       </c>
@@ -8945,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>152</v>
       </c>
@@ -8989,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>115</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>102</v>
       </c>
@@ -9077,7 +9078,7 @@
         <v>133.34</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>51</v>
       </c>
@@ -9121,7 +9122,7 @@
         <v>79.66</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>113</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>95</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>95</v>
       </c>
@@ -9253,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>104</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>50.42</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>133</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>44.193333333333328</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>101</v>
       </c>
@@ -9385,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>77</v>
       </c>
@@ -9429,7 +9430,7 @@
         <v>113.11</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>10</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>93.39</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>8</v>
       </c>
@@ -9496,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>155</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>156</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>123</v>
       </c>
@@ -9588,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>142</v>
       </c>
@@ -9611,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>69</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>71</v>
       </c>
@@ -9657,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>75</v>
       </c>
@@ -9680,7 +9681,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>159</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>99</v>
       </c>
@@ -9726,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>101</v>
       </c>
@@ -9749,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>77</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>80</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>161</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>165</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>113</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>168</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>170</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>172</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>133</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>81</v>
       </c>
@@ -9979,7 +9980,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>83</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>115</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>62</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>104</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>99</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>204</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>206</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>89</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>209</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>211</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>213</v>
       </c>
@@ -10232,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>99</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>204</v>
       </c>
@@ -10278,7 +10279,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>206</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>69</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>71</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>69</v>
       </c>
@@ -10370,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>101</v>
       </c>
@@ -10393,7 +10394,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>252</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>254</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>256</v>
       </c>
@@ -10462,7 +10463,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>123</v>
       </c>
@@ -10485,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>8</v>
       </c>
@@ -10508,7 +10509,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>259</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>261</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>263</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>133</v>
       </c>
@@ -10600,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>156</v>
       </c>
@@ -10623,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>265</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>142</v>
       </c>
@@ -10669,7 +10670,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>267</v>
       </c>
@@ -10692,7 +10693,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>269</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>271</v>
       </c>
@@ -10738,7 +10739,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>95</v>
       </c>
@@ -10761,7 +10762,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>274</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>276</v>
       </c>
@@ -10807,7 +10808,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>278</v>
       </c>
@@ -10830,7 +10831,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>123</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>281</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>283</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>10</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>90</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>286</v>
       </c>
@@ -10968,7 +10969,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>288</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>113</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>77</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>80</v>
       </c>
@@ -11085,20 +11086,20 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -11115,7 +11116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>292</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>294</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
@@ -11184,7 +11185,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>298</v>
       </c>
@@ -11207,7 +11208,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>299</v>
       </c>
@@ -11230,7 +11231,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>301</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>304</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>306</v>
       </c>
@@ -11299,7 +11300,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>308</v>
       </c>
@@ -11322,7 +11323,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>310</v>
       </c>
@@ -11345,7 +11346,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>312</v>
       </c>
@@ -11368,7 +11369,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>314</v>
       </c>
@@ -11391,7 +11392,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>316</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>318</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>320</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>322</v>
       </c>
@@ -11483,7 +11484,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>324</v>
       </c>
@@ -11506,7 +11507,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>326</v>
       </c>
@@ -11529,7 +11530,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -11552,7 +11553,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>330</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>332</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="2"/>
@@ -11607,7 +11608,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="2"/>
@@ -11616,7 +11617,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="2"/>
@@ -11625,7 +11626,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="2"/>
@@ -11634,7 +11635,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="2"/>

--- a/GSD/Water Samples/LaJara_LISST_GSD_Spring2023.xlsx
+++ b/GSD/Water Samples/LaJara_LISST_GSD_Spring2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\Water Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52E5AF-9546-45EE-B83E-2E1A8B727EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E2ED8-2CE2-432D-8A23-63FA8EAE419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{99C89BF0-5701-4EDE-976A-2DC8AC06B2E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C89BF0-5701-4EDE-976A-2DC8AC06B2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ISCO 1 (down)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="340">
   <si>
     <t>-</t>
   </si>
@@ -1058,6 +1058,9 @@
   </si>
   <si>
     <t>Lab ID</t>
+  </si>
+  <si>
+    <t>5/4/2023  2:00:00 M</t>
   </si>
 </sst>
 </file>
@@ -1376,6 +1379,3725 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3712160979877515E-2"/>
+                  <c:y val="0.25393919510061241"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('ISCO 1 (down)'!$M$4:$M$7,'ISCO 1 (down)'!$M$10:$M$12,'ISCO 1 (down)'!$M$14,'ISCO 1 (down)'!$M$19,'ISCO 1 (down)'!$M$53:$M$54,'ISCO 1 (down)'!$M$57:$M$61,'ISCO 1 (down)'!$M$65,'ISCO 1 (down)'!$M$67,'ISCO 1 (down)'!$M$73:$M$74)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>106.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.232500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>59.16</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>48.467500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>78.710000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>45.419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>74.752499999999998</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>56.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>63.56</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>85.89</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>50.13</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>44.99</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>35.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>31.62</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>25.42</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>68.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>50.92</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>33.08</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>77.489999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('ISCO 1 (down)'!$N$4:$N$7,'ISCO 1 (down)'!$N$10:$N$12,'ISCO 1 (down)'!$N$14,'ISCO 1 (down)'!$N$19,'ISCO 1 (down)'!$N$53:$N$54,'ISCO 1 (down)'!$N$57:$N$61,'ISCO 1 (down)'!$N$65,'ISCO 1 (down)'!$N$67,'ISCO 1 (down)'!$N$73:$N$74)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>74.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.327500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>68.435000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>66.542500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>47.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>78.826666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>68.867500000000007</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>57.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>74.05</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>79.16</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>58.66</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>102.87</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>68.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>76.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>78.58</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>86.67</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>71.05</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>50.79</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>86.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3251-44F5-9B26-05A0D27E4BB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1390646736"/>
+        <c:axId val="1018544880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1390646736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018544880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1018544880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1390646736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISCO 4 (up)'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concentration (uL/L)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ISCO 4 (up)'!$K$4:$K$87</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45033.6875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45033.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45034.020833333336</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45034.1875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45034.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45034.520833333336</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45034.6875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45034.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45035.104166666664</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45035.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45035.520833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45035.729166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45035.9375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45036.145833333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45036.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45036.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45036.979166666664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45037.395833333336</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45037.604166666664</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45037.8125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45038.020833333336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45038.229166666664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45038.4375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45038.645833333336</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45038.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45039.0625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45039.479166666664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45039.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45039.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45040.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45040.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45040.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45040.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45040.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45041.125</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>45041.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45041.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45042.5625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45042.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45043.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45043.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45043.625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45043.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45044.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45044.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45044.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45044.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45044.875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45045.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45045.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45045.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45045.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45046.125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45046.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45046.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45046.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45046.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45047.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45047.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45047.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45047.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45048.125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45048.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45048.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45049</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45049.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45049.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45049.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45049.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45050.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45050.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45050.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45050.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45050.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45050.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45050.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45050.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45051.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45051.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45051.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45051.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45051.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45051.708333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ISCO 4 (up)'!$O$4:$O$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>103.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.675000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.895000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.474999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.579999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.682499999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.535000000000011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.586666666666673</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.59</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56.017499999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.66</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64.14</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>87.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.28</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35.26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>72.78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.186666666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>99.54</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25.61</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.814999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B694-4248-9BE6-FCE379EF9FB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1630580928"/>
+        <c:axId val="959364704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1630580928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yy\ h:mm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="959364704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="959364704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1630580928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Concentration v/s D50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12762007874015754"/>
+                  <c:y val="-0.19708953047535724"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('ISCO 4 (up)'!$O$4:$O$7,'ISCO 4 (up)'!$O$10:$O$13,'ISCO 4 (up)'!$O$16:$O$17,'ISCO 4 (up)'!$O$20,'ISCO 4 (up)'!$O$23,'ISCO 4 (up)'!$O$25,'ISCO 4 (up)'!$O$27:$O$28,'ISCO 4 (up)'!$O$33,'ISCO 4 (up)'!$O$35:$O$37,'ISCO 4 (up)'!$O$51,'ISCO 4 (up)'!$O$59:$O$60,'ISCO 4 (up)'!$O$65,'ISCO 4 (up)'!$O$71,'ISCO 4 (up)'!$O$72,'ISCO 4 (up)'!$O$74,'ISCO 4 (up)'!$O$77,'ISCO 4 (up)'!$O$79:$O$82,'ISCO 4 (up)'!$O$84:$O$85)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>103.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.675000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.895000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.474999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.579999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.682499999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.535000000000011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.586666666666673</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.017499999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72.78</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.186666666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.54</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('ISCO 4 (up)'!$P$4:$P$7,'ISCO 4 (up)'!$P$10:$P$13,'ISCO 4 (up)'!$P$16:$P$17,'ISCO 4 (up)'!$P$20,'ISCO 4 (up)'!$P$23,'ISCO 4 (up)'!$P$25,'ISCO 4 (up)'!$P$27:$P$28,'ISCO 4 (up)'!$P$33,'ISCO 4 (up)'!$P$35:$P$37,'ISCO 4 (up)'!$P$51,'ISCO 4 (up)'!$P$59,'ISCO 4 (up)'!$P$65,'ISCO 4 (up)'!$P$71:$P$72,'ISCO 4 (up)'!$P$74,'ISCO 4 (up)'!$P$77,'ISCO 4 (up)'!$P$79:$P$80,'ISCO 4 (up)'!$P$81:$P$82,'ISCO 4 (up)'!$P$84:$P$85)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>81.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.137500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.156666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.137500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.814999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.920000000000016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.026666666666657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.806666666666658</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30.57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.823333333333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>113.11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.193333333333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C92-4A27-A526-459056191B86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1390666688"/>
+        <c:axId val="1147276384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1390666688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (uL/L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147276384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1147276384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>D50</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1390666688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1204912</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E06D5E3-1503-F427-E6D2-DCED1CBE72B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852E8DBF-7468-245E-5023-50D6D0BFDEA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4A2266-BEBF-3C52-C530-3F0360C0C768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1675,8 +5397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4F41F3-2406-4DBC-AD18-012969672032}">
   <dimension ref="A2:O152"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,7 +6262,7 @@
         <v>117</v>
       </c>
       <c r="J21" s="3">
-        <v>45039</v>
+        <v>45039.666666666664</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -2584,7 +6306,7 @@
         <v>114</v>
       </c>
       <c r="J22" s="3">
-        <v>45039</v>
+        <v>45039.875</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -2629,7 +6351,7 @@
         <v>129</v>
       </c>
       <c r="J23" s="9">
-        <v>45040</v>
+        <v>45040.083333333336</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -2673,8 +6395,8 @@
       <c r="I24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="21">
-        <v>45040</v>
+      <c r="J24" s="3">
+        <v>45040.291666666664</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -2718,8 +6440,8 @@
       <c r="I25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="9">
-        <v>45040</v>
+      <c r="J25" s="3">
+        <v>45040.5</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -2764,7 +6486,7 @@
         <v>124</v>
       </c>
       <c r="J26" s="3">
-        <v>45040</v>
+        <v>45040.708333333336</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -2809,7 +6531,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="3">
-        <v>45040</v>
+        <v>45040.916666666664</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -2854,7 +6576,7 @@
         <v>108</v>
       </c>
       <c r="J28" s="3">
-        <v>45041</v>
+        <v>45041.125</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
@@ -2899,7 +6621,7 @@
         <v>135</v>
       </c>
       <c r="J29" s="3">
-        <v>45041</v>
+        <v>45041.333333333336</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -2944,7 +6666,7 @@
         <v>127</v>
       </c>
       <c r="J30" s="3">
-        <v>45041</v>
+        <v>45041.541666666664</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -2989,7 +6711,7 @@
         <v>121</v>
       </c>
       <c r="J31" s="3">
-        <v>45041</v>
+        <v>45041.75</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -3034,7 +6756,7 @@
         <v>138</v>
       </c>
       <c r="J32" s="3">
-        <v>45041</v>
+        <v>45041.958333333336</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -3079,7 +6801,7 @@
         <v>134</v>
       </c>
       <c r="J33" s="3">
-        <v>45041</v>
+        <v>45042.166666666664</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -3124,7 +6846,7 @@
         <v>144</v>
       </c>
       <c r="J34" s="3">
-        <v>45042</v>
+        <v>45042.583333333336</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -3169,7 +6891,7 @@
         <v>94</v>
       </c>
       <c r="J35" s="3">
-        <v>45042</v>
+        <v>45042.791666666664</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
@@ -3258,7 +6980,7 @@
         <v>96</v>
       </c>
       <c r="J37" s="3">
-        <v>45043</v>
+        <v>45043.208333333336</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -3302,7 +7024,7 @@
         <v>131</v>
       </c>
       <c r="J38" s="3">
-        <v>45043</v>
+        <v>45043.416666666664</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -3346,7 +7068,7 @@
         <v>112</v>
       </c>
       <c r="J39" s="3">
-        <v>45043</v>
+        <v>45043.625</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -3390,7 +7112,7 @@
         <v>119</v>
       </c>
       <c r="J40" s="3">
-        <v>45044</v>
+        <v>45043.833333333336</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
@@ -3434,7 +7156,7 @@
         <v>91</v>
       </c>
       <c r="J41" s="3">
-        <v>45044</v>
+        <v>45044.041666666664</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -3477,8 +7199,8 @@
       <c r="I42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J42" s="21">
-        <v>45044</v>
+      <c r="J42" s="3">
+        <v>45044.25</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -3522,7 +7244,7 @@
         <v>136</v>
       </c>
       <c r="J43" s="3">
-        <v>45044</v>
+        <v>45044.458333333336</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -3566,7 +7288,7 @@
         <v>117</v>
       </c>
       <c r="J44" s="3">
-        <v>45044</v>
+        <v>45044.666666666664</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -3610,7 +7332,7 @@
         <v>114</v>
       </c>
       <c r="J45" s="3">
-        <v>45045</v>
+        <v>45044.875</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
@@ -3654,7 +7376,7 @@
         <v>129</v>
       </c>
       <c r="J46" s="3">
-        <v>45045</v>
+        <v>45045.083333333336</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -3698,7 +7420,7 @@
         <v>120</v>
       </c>
       <c r="J47" s="3">
-        <v>45045</v>
+        <v>45045.291666666664</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -3742,7 +7464,7 @@
         <v>109</v>
       </c>
       <c r="J48" s="3">
-        <v>45045</v>
+        <v>45045.5</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -3785,8 +7507,8 @@
       <c r="I49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="21">
-        <v>45045</v>
+      <c r="J49" s="3">
+        <v>45045.916666666664</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -3829,8 +7551,8 @@
       <c r="I50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="21">
-        <v>45046</v>
+      <c r="J50" s="3">
+        <v>45046.125</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
@@ -3874,7 +7596,7 @@
         <v>135</v>
       </c>
       <c r="J51" s="3">
-        <v>45046</v>
+        <v>45046.333333333336</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
@@ -3918,7 +7640,7 @@
         <v>127</v>
       </c>
       <c r="J52" s="3">
-        <v>45046</v>
+        <v>45046.541666666664</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -3962,7 +7684,7 @@
         <v>121</v>
       </c>
       <c r="J53" s="3">
-        <v>45046</v>
+        <v>45046.75</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
@@ -4006,7 +7728,7 @@
         <v>138</v>
       </c>
       <c r="J54" s="3">
-        <v>45046</v>
+        <v>45046.958333333336</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -4050,7 +7772,7 @@
         <v>134</v>
       </c>
       <c r="J55" s="3">
-        <v>45047</v>
+        <v>45047.166666666664</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -4094,7 +7816,7 @@
         <v>141</v>
       </c>
       <c r="J56" s="3">
-        <v>45047</v>
+        <v>45047.375</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
@@ -4138,7 +7860,7 @@
         <v>144</v>
       </c>
       <c r="J57" s="3">
-        <v>45047</v>
+        <v>45047.583333333336</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
@@ -4182,7 +7904,7 @@
         <v>94</v>
       </c>
       <c r="J58" s="3">
-        <v>45047</v>
+        <v>45047.833333333336</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
@@ -4226,7 +7948,7 @@
         <v>110</v>
       </c>
       <c r="J59" s="3">
-        <v>45048</v>
+        <v>45048.125</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
@@ -4271,7 +7993,7 @@
         <v>96</v>
       </c>
       <c r="J60" s="3">
-        <v>45048</v>
+        <v>45048.416666666664</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
@@ -4316,7 +8038,7 @@
         <v>131</v>
       </c>
       <c r="J61" s="3">
-        <v>45048</v>
+        <v>45048.708333333336</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
@@ -4406,7 +8128,7 @@
         <v>119</v>
       </c>
       <c r="J63" s="3">
-        <v>45049</v>
+        <v>45049.291666666664</v>
       </c>
       <c r="K63" s="2">
         <v>0</v>
@@ -4451,7 +8173,7 @@
         <v>91</v>
       </c>
       <c r="J64" s="3">
-        <v>45049</v>
+        <v>45049.583333333336</v>
       </c>
       <c r="K64" s="2">
         <v>0</v>
@@ -4496,7 +8218,7 @@
         <v>117</v>
       </c>
       <c r="J65" s="3">
-        <v>45049</v>
+        <v>45049.833333333336</v>
       </c>
       <c r="K65" s="2">
         <v>0</v>
@@ -4541,7 +8263,7 @@
         <v>114</v>
       </c>
       <c r="J66" s="3">
-        <v>45049</v>
+        <v>45049.958333333336</v>
       </c>
       <c r="K66" s="2">
         <v>0</v>
@@ -4585,7 +8307,7 @@
         <v>129</v>
       </c>
       <c r="J67" s="3">
-        <v>45050</v>
+        <v>45050.083333333336</v>
       </c>
       <c r="K67" s="2">
         <v>0</v>
@@ -4629,7 +8351,7 @@
         <v>120</v>
       </c>
       <c r="J68" s="3">
-        <v>45050</v>
+        <v>45050.208333333336</v>
       </c>
       <c r="K68" s="2">
         <v>0</v>
@@ -4673,7 +8395,7 @@
         <v>109</v>
       </c>
       <c r="J69" s="3">
-        <v>45050</v>
+        <v>45050.333333333336</v>
       </c>
       <c r="K69" s="2">
         <v>0</v>
@@ -4717,7 +8439,7 @@
         <v>124</v>
       </c>
       <c r="J70" s="3">
-        <v>45050</v>
+        <v>45050.458333333336</v>
       </c>
       <c r="K70" s="2">
         <v>0</v>
@@ -4760,8 +8482,8 @@
       <c r="I71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J71" s="3">
-        <v>45050</v>
+      <c r="J71" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="K71" s="2">
         <v>0</v>
@@ -4805,7 +8527,7 @@
         <v>108</v>
       </c>
       <c r="J72" s="3">
-        <v>45050</v>
+        <v>45050.708333333336</v>
       </c>
       <c r="K72" s="2">
         <v>0</v>
@@ -4849,7 +8571,7 @@
         <v>127</v>
       </c>
       <c r="J73" s="3">
-        <v>45050</v>
+        <v>45050.958333333336</v>
       </c>
       <c r="K73" s="2">
         <v>0</v>
@@ -4893,7 +8615,7 @@
         <v>121</v>
       </c>
       <c r="J74" s="3">
-        <v>45050</v>
+        <v>45051.083333333336</v>
       </c>
       <c r="K74" s="2">
         <v>0</v>
@@ -5668,6 +9390,7 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5675,8 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47770336-139B-4E1D-B90D-A41F00945441}">
   <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5698,29 +9421,7 @@
     <col min="15" max="15" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="6">
-        <v>45040</v>
-      </c>
-      <c r="L2" s="2">
-        <v>253</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="23">
-        <v>96.2</v>
-      </c>
-      <c r="O2" s="23">
-        <v>27.12</v>
-      </c>
-      <c r="P2" s="23">
-        <v>48.05</v>
-      </c>
-    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>6</v>
@@ -7005,8 +10706,8 @@
       <c r="J31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="11">
-        <v>45039</v>
+      <c r="K31" s="6">
+        <v>45039.666666666664</v>
       </c>
       <c r="L31" s="2">
         <v>248</v>
@@ -7051,7 +10752,7 @@
         <v>142</v>
       </c>
       <c r="K32" s="6">
-        <v>45039</v>
+        <v>45039.875</v>
       </c>
       <c r="L32" s="2">
         <v>249</v>
@@ -7094,8 +10795,8 @@
       <c r="J33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="9">
-        <v>45040</v>
+      <c r="K33" s="6">
+        <v>45040.083333333336</v>
       </c>
       <c r="L33" s="2">
         <v>250</v>
@@ -7142,7 +10843,7 @@
         <v>89</v>
       </c>
       <c r="K34" s="6">
-        <v>45040</v>
+        <v>45040.291666666664</v>
       </c>
       <c r="L34" s="2">
         <v>251</v>
@@ -7186,7 +10887,7 @@
         <v>123</v>
       </c>
       <c r="K35" s="15">
-        <v>45040</v>
+        <v>45040.5</v>
       </c>
       <c r="L35" s="2">
         <v>252</v>
@@ -7230,25 +10931,25 @@
         <v>74</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K36" s="6">
-        <v>45041</v>
+        <v>45040.708333333336</v>
       </c>
       <c r="L36" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="N36" s="23" t="s">
-        <v>64</v>
+      <c r="N36" s="23">
+        <v>96.2</v>
       </c>
       <c r="O36" s="23">
-        <v>0</v>
+        <v>27.12</v>
       </c>
       <c r="P36" s="23">
-        <v>0</v>
+        <v>48.05</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -7277,7 +10978,7 @@
         <v>87</v>
       </c>
       <c r="K37" s="6">
-        <v>45040</v>
+        <v>45040.916666666664</v>
       </c>
       <c r="L37" s="2">
         <v>269</v>
@@ -7321,7 +11022,7 @@
         <v>115</v>
       </c>
       <c r="K38" s="9">
-        <v>45041</v>
+        <v>45041.125</v>
       </c>
       <c r="L38" s="2">
         <v>270</v>
@@ -7361,6 +11062,27 @@
       <c r="G39" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="J39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="9">
+        <v>45041.541666666664</v>
+      </c>
+      <c r="L39" s="2">
+        <v>271</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="23">
+        <v>0</v>
+      </c>
+      <c r="P39" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -7384,14 +11106,14 @@
       <c r="G40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="9">
-        <v>45041</v>
+      <c r="J40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" s="6">
+        <v>45041.75</v>
       </c>
       <c r="L40" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -7432,7 +11154,7 @@
         <v>95</v>
       </c>
       <c r="K41" s="6">
-        <v>45042</v>
+        <v>45042.5625</v>
       </c>
       <c r="L41" s="2">
         <v>273</v>
@@ -7476,7 +11198,7 @@
         <v>77</v>
       </c>
       <c r="K42" s="6">
-        <v>45042</v>
+        <v>45042.791666666664</v>
       </c>
       <c r="L42" s="2">
         <v>274</v>
@@ -7561,13 +11283,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K44" s="6">
-        <v>45043</v>
+        <v>45043.208333333336</v>
       </c>
       <c r="L44" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M44" s="2">
         <v>0</v>
@@ -7605,13 +11327,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K45" s="6">
-        <v>45043</v>
+        <v>45043.416666666664</v>
       </c>
       <c r="L45" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -7648,14 +11370,14 @@
       <c r="G46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>8</v>
+      <c r="J46" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="K46" s="6">
-        <v>45043</v>
+        <v>45043.625</v>
       </c>
       <c r="L46" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -7692,14 +11414,14 @@
       <c r="G47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>90</v>
+      <c r="J47" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="6">
-        <v>45043</v>
+        <v>45043.833333333336</v>
       </c>
       <c r="L47" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -7736,14 +11458,14 @@
       <c r="G48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>140</v>
+      <c r="J48" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="K48" s="6">
-        <v>45045</v>
+        <v>45044.041666666664</v>
       </c>
       <c r="L48" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
@@ -7780,14 +11502,14 @@
       <c r="G49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>10</v>
+      <c r="J49" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="K49" s="6">
-        <v>45044</v>
+        <v>45044.25</v>
       </c>
       <c r="L49" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -7824,14 +11546,14 @@
       <c r="G50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K50" s="6">
-        <v>45044</v>
+      <c r="J50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K50" s="3">
+        <v>45044.458333333336</v>
       </c>
       <c r="L50" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -7868,26 +11590,26 @@
       <c r="G51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>156</v>
+      <c r="J51" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K51" s="3">
-        <v>45044</v>
+        <v>45044.666666666664</v>
       </c>
       <c r="L51" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
       </c>
-      <c r="N51" s="23" t="s">
-        <v>64</v>
+      <c r="N51" s="23">
+        <v>96.825000000000003</v>
       </c>
       <c r="O51" s="23">
-        <v>0</v>
+        <v>56.017499999999998</v>
       </c>
       <c r="P51" s="23">
-        <v>0</v>
+        <v>47.98</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -7913,25 +11635,25 @@
         <v>107</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K52" s="3">
-        <v>45044</v>
+        <v>45044.875</v>
       </c>
       <c r="L52" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
       </c>
-      <c r="N52" s="23">
-        <v>96.825000000000003</v>
+      <c r="N52" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O52" s="23">
-        <v>56.017499999999998</v>
+        <v>0</v>
       </c>
       <c r="P52" s="23">
-        <v>47.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -7956,20 +11678,20 @@
       <c r="G53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>102</v>
+      <c r="J53" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="K53" s="3">
-        <v>45045</v>
+        <v>45045.083333333336</v>
       </c>
       <c r="L53" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
       </c>
       <c r="N53" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O53" s="23">
         <v>0</v>
@@ -8004,7 +11726,7 @@
         <v>123</v>
       </c>
       <c r="K54" s="3">
-        <v>45045</v>
+        <v>45045.5</v>
       </c>
       <c r="L54" s="2">
         <v>304</v>
@@ -8044,20 +11766,20 @@
       <c r="G55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>142</v>
+      <c r="J55" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="K55" s="3">
-        <v>45045</v>
+        <v>45045.708333333336</v>
       </c>
       <c r="L55" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
       </c>
       <c r="N55" s="23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O55" s="23">
         <v>0</v>
@@ -8088,14 +11810,14 @@
       <c r="G56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K56" s="3">
-        <v>45045</v>
+      <c r="J56" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K56" s="6">
+        <v>45045.916666666664</v>
       </c>
       <c r="L56" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -8132,26 +11854,26 @@
       <c r="G57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K57" s="3">
-        <v>45046</v>
+      <c r="J57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57" s="6">
+        <v>45046.125</v>
       </c>
       <c r="L57" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
       </c>
-      <c r="N57" s="23">
-        <v>96.7</v>
+      <c r="N57" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O57" s="23">
-        <v>43.66</v>
+        <v>0</v>
       </c>
       <c r="P57" s="23">
-        <v>79.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -8176,20 +11898,20 @@
       <c r="G58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J58" s="5" t="s">
-        <v>115</v>
+      <c r="J58" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="K58" s="6">
-        <v>45046</v>
+        <v>45046.333333333336</v>
       </c>
       <c r="L58" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M58" s="2">
         <v>0</v>
       </c>
       <c r="N58" s="23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O58" s="23">
         <v>0</v>
@@ -8220,26 +11942,26 @@
       <c r="G59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59" s="6">
-        <v>45046</v>
+      <c r="J59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" s="3">
+        <v>45046.541666666664</v>
       </c>
       <c r="L59" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
       </c>
-      <c r="N59" s="23" t="s">
-        <v>68</v>
+      <c r="N59" s="23">
+        <v>96.7</v>
       </c>
       <c r="O59" s="23">
-        <v>0</v>
+        <v>43.66</v>
       </c>
       <c r="P59" s="23">
-        <v>0</v>
+        <v>79.88</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -8265,25 +11987,25 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="K60" s="6">
-        <v>45046</v>
+        <v>45046.75</v>
       </c>
       <c r="L60" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
       </c>
-      <c r="N60" s="23" t="s">
-        <v>68</v>
+      <c r="N60" s="23">
+        <v>0.9</v>
       </c>
       <c r="O60" s="23">
-        <v>0</v>
+        <v>85.5</v>
       </c>
       <c r="P60" s="23">
-        <v>0</v>
+        <v>53.17</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -8309,25 +12031,25 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="K61" s="6">
-        <v>45046</v>
+        <v>45046.958333333336</v>
       </c>
       <c r="L61" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M61" s="2">
         <v>0</v>
       </c>
-      <c r="N61" s="23">
-        <v>0.9</v>
+      <c r="N61" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="O61" s="23">
-        <v>85.5</v>
+        <v>0</v>
       </c>
       <c r="P61" s="23">
-        <v>53.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -8356,7 +12078,7 @@
         <v>106</v>
       </c>
       <c r="K62" s="3">
-        <v>45047</v>
+        <v>45047.166666666664</v>
       </c>
       <c r="L62" s="2">
         <v>312</v>
@@ -8400,7 +12122,7 @@
         <v>81</v>
       </c>
       <c r="K63" s="3">
-        <v>45047</v>
+        <v>45047.375</v>
       </c>
       <c r="L63" s="2">
         <v>313</v>
@@ -8444,7 +12166,7 @@
         <v>95</v>
       </c>
       <c r="K64" s="6">
-        <v>45047</v>
+        <v>45047.583333333336</v>
       </c>
       <c r="L64" s="2">
         <v>314</v>
@@ -8488,7 +12210,7 @@
         <v>77</v>
       </c>
       <c r="K65" s="3">
-        <v>45048</v>
+        <v>45047.833333333336</v>
       </c>
       <c r="L65" s="2">
         <v>328</v>
@@ -8529,13 +12251,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="K66" s="3">
-        <v>45048</v>
+        <v>45048.125</v>
       </c>
       <c r="L66" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
@@ -8573,13 +12295,13 @@
         <v>146</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K67" s="3">
-        <v>45048</v>
+        <v>45048.416666666664</v>
       </c>
       <c r="L67" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
@@ -8620,7 +12342,7 @@
         <v>133</v>
       </c>
       <c r="K68" s="6">
-        <v>45048</v>
+        <v>45048.708333333336</v>
       </c>
       <c r="L68" s="2">
         <v>331</v>
@@ -8661,19 +12383,19 @@
         <v>148</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="K69" s="3">
         <v>45049</v>
       </c>
       <c r="L69" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
       </c>
-      <c r="N69" s="23" t="s">
-        <v>64</v>
+      <c r="N69" s="23">
+        <v>98</v>
       </c>
       <c r="O69" s="23">
         <v>0</v>
@@ -8705,25 +12427,25 @@
         <v>149</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K70" s="3">
-        <v>45049</v>
+        <v>45049.291666666664</v>
       </c>
       <c r="L70" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
       </c>
-      <c r="N70" s="23">
-        <v>96.4</v>
+      <c r="N70" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O70" s="23">
-        <v>39.619999999999997</v>
+        <v>0</v>
       </c>
       <c r="P70" s="23">
-        <v>54.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -8749,25 +12471,25 @@
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="K71" s="3">
-        <v>45049</v>
+        <v>45049.583333333336</v>
       </c>
       <c r="L71" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M71" s="2">
         <v>0</v>
       </c>
       <c r="N71" s="23">
-        <v>91.033333333333346</v>
+        <v>96.4</v>
       </c>
       <c r="O71" s="23">
-        <v>87.100000000000009</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="P71" s="23">
-        <v>49.949999999999996</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -8793,25 +12515,25 @@
         <v>150</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="K72" s="3">
-        <v>45049</v>
+        <v>45049.833333333336</v>
       </c>
       <c r="L72" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M72" s="2">
         <v>0</v>
       </c>
       <c r="N72" s="23">
-        <v>98</v>
+        <v>91.033333333333346</v>
       </c>
       <c r="O72" s="23">
-        <v>0</v>
+        <v>87.100000000000009</v>
       </c>
       <c r="P72" s="23">
-        <v>0</v>
+        <v>49.949999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -8836,26 +12558,26 @@
       <c r="G73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K73" s="3">
-        <v>45050</v>
-      </c>
-      <c r="L73" s="2">
-        <v>338</v>
+      <c r="J73" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="6">
+        <v>45049.958333333336</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="M73" s="2">
         <v>0</v>
       </c>
-      <c r="N73" s="23">
-        <v>96.2</v>
+      <c r="N73" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="O73" s="23">
-        <v>25.16</v>
+        <v>0</v>
       </c>
       <c r="P73" s="23">
-        <v>30.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -8881,25 +12603,25 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K74" s="3">
-        <v>45050</v>
-      </c>
-      <c r="L74" s="2">
-        <v>339</v>
+        <v>45050.083333333336</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="M74" s="2">
         <v>0</v>
       </c>
       <c r="N74" s="23">
-        <v>97.066666666666663</v>
+        <v>95.7</v>
       </c>
       <c r="O74" s="23">
-        <v>15.186666666666667</v>
+        <v>26.28</v>
       </c>
       <c r="P74" s="23">
-        <v>26.823333333333334</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -8925,13 +12647,13 @@
         <v>151</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K75" s="3">
-        <v>45050</v>
+        <v>45050.208333333336</v>
       </c>
       <c r="L75" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M75" s="2">
         <v>0</v>
@@ -8969,13 +12691,13 @@
         <v>153</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="K76" s="3">
-        <v>45050</v>
-      </c>
-      <c r="L76" s="2">
-        <v>336</v>
+        <v>45050.333333333336</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="M76" s="2">
         <v>0</v>
@@ -9013,10 +12735,10 @@
         <v>154</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K77" s="3">
-        <v>45050</v>
+        <v>45050.458333333336</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>0</v>
@@ -9025,13 +12747,13 @@
         <v>0</v>
       </c>
       <c r="N77" s="23">
-        <v>95.7</v>
+        <v>96.6</v>
       </c>
       <c r="O77" s="23">
-        <v>26.28</v>
+        <v>35.26</v>
       </c>
       <c r="P77" s="23">
-        <v>36.200000000000003</v>
+        <v>133.34</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -9057,25 +12779,25 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K78" s="3">
-        <v>45050</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>0</v>
+        <v>45050.583333333336</v>
+      </c>
+      <c r="L78" s="2">
+        <v>337</v>
       </c>
       <c r="M78" s="2">
         <v>0</v>
       </c>
-      <c r="N78" s="23">
-        <v>96.6</v>
+      <c r="N78" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O78" s="23">
-        <v>35.26</v>
+        <v>0</v>
       </c>
       <c r="P78" s="23">
-        <v>133.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -9104,7 +12826,7 @@
         <v>115</v>
       </c>
       <c r="K79" s="3">
-        <v>45050</v>
+        <v>45050.708333333336</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>0</v>
@@ -9145,25 +12867,25 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="K80" s="3">
-        <v>45050</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>0</v>
+        <v>45050.833333333336</v>
+      </c>
+      <c r="L80" s="2">
+        <v>338</v>
       </c>
       <c r="M80" s="2">
         <v>0</v>
       </c>
-      <c r="N80" s="23" t="s">
-        <v>64</v>
+      <c r="N80" s="23">
+        <v>96.2</v>
       </c>
       <c r="O80" s="23">
-        <v>0</v>
+        <v>25.16</v>
       </c>
       <c r="P80" s="23">
-        <v>0</v>
+        <v>30.57</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -9188,26 +12910,26 @@
       <c r="G81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J81" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K81" s="6">
-        <v>45050</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>0</v>
+      <c r="J81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K81" s="3">
+        <v>45050.958333333336</v>
+      </c>
+      <c r="L81" s="2">
+        <v>339</v>
       </c>
       <c r="M81" s="2">
         <v>0</v>
       </c>
-      <c r="N81" s="23" t="s">
-        <v>68</v>
+      <c r="N81" s="23">
+        <v>97.066666666666663</v>
       </c>
       <c r="O81" s="23">
-        <v>0</v>
+        <v>15.186666666666667</v>
       </c>
       <c r="P81" s="23">
-        <v>0</v>
+        <v>26.823333333333334</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -9233,25 +12955,25 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="K82" s="3">
-        <v>45051</v>
-      </c>
-      <c r="L82" s="2">
-        <v>340</v>
+        <v>45051.083333333336</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="M82" s="2">
         <v>0</v>
       </c>
-      <c r="N82" s="23" t="s">
-        <v>64</v>
+      <c r="N82" s="23">
+        <v>95.1</v>
       </c>
       <c r="O82" s="23">
-        <v>0</v>
+        <v>99.54</v>
       </c>
       <c r="P82" s="23">
-        <v>0</v>
+        <v>113.11</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -9277,25 +12999,25 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="K83" s="3">
-        <v>45051</v>
+        <v>45051.208333333336</v>
       </c>
       <c r="L83" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M83" s="2">
         <v>0</v>
       </c>
-      <c r="N83" s="23">
-        <v>96.6</v>
+      <c r="N83" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O83" s="23">
-        <v>30.814999999999998</v>
+        <v>0</v>
       </c>
       <c r="P83" s="23">
-        <v>50.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -9321,25 +13043,25 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K84" s="3">
-        <v>45051</v>
-      </c>
-      <c r="L84" s="2">
-        <v>341</v>
+        <v>45051.333333333336</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="M84" s="2">
         <v>0</v>
       </c>
       <c r="N84" s="23">
-        <v>96.833333333333329</v>
+        <v>96.2</v>
       </c>
       <c r="O84" s="23">
-        <v>25.61</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="P84" s="23">
-        <v>44.193333333333328</v>
+        <v>93.39</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -9365,25 +13087,25 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K85" s="3">
-        <v>45051</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>0</v>
+        <v>45051.458333333336</v>
+      </c>
+      <c r="L85" s="2">
+        <v>341</v>
       </c>
       <c r="M85" s="2">
         <v>0</v>
       </c>
-      <c r="N85" s="23" t="s">
-        <v>64</v>
+      <c r="N85" s="23">
+        <v>96.833333333333329</v>
       </c>
       <c r="O85" s="23">
-        <v>0</v>
+        <v>25.61</v>
       </c>
       <c r="P85" s="23">
-        <v>0</v>
+        <v>44.193333333333328</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -9409,10 +13131,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K86" s="3">
-        <v>45051</v>
+        <v>45051.583333333336</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>0</v>
@@ -9420,14 +13142,14 @@
       <c r="M86" s="2">
         <v>0</v>
       </c>
-      <c r="N86" s="23">
-        <v>95.1</v>
+      <c r="N86" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="O86" s="23">
-        <v>99.54</v>
+        <v>0</v>
       </c>
       <c r="P86" s="23">
-        <v>113.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -9453,25 +13175,25 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="K87" s="3">
-        <v>45051</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>0</v>
+        <v>45051.708333333336</v>
+      </c>
+      <c r="L87" s="2">
+        <v>342</v>
       </c>
       <c r="M87" s="2">
         <v>0</v>
       </c>
       <c r="N87" s="23">
-        <v>96.2</v>
+        <v>96.6</v>
       </c>
       <c r="O87" s="23">
-        <v>40.119999999999997</v>
+        <v>30.814999999999998</v>
       </c>
       <c r="P87" s="23">
-        <v>93.39</v>
+        <v>50.42</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -11075,6 +14797,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GSD/Water Samples/LaJara_LISST_GSD_Spring2023.xlsx
+++ b/GSD/Water Samples/LaJara_LISST_GSD_Spring2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\Water Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DDC034-011C-4626-B223-C3DF43C029A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD797D4F-2328-4168-B51C-71503CDA0D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99C89BF0-5701-4EDE-976A-2DC8AC06B2E1}"/>
   </bookViews>
@@ -1671,27 +1671,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1753,6 +1732,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5492,9 +5492,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5532,7 +5532,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5638,7 +5638,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5780,7 +5780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5811,24 +5811,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="I2" s="30" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="I2" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -5865,7 +5865,7 @@
       <c r="O3" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="30" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5891,28 +5891,28 @@
       <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="32">
         <v>45033.6875</v>
       </c>
-      <c r="K4" s="38">
-        <v>0</v>
-      </c>
-      <c r="L4" s="41">
+      <c r="K4" s="31">
+        <v>0</v>
+      </c>
+      <c r="L4" s="34">
         <v>94.166666666666671</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="31">
         <v>106.21</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="35">
         <v>74.67</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="47">
         <v>205</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5938,29 +5938,29 @@
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="32">
         <v>45033.854166666664</v>
       </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="41">
+      <c r="K5" s="31">
+        <v>0</v>
+      </c>
+      <c r="L5" s="34">
         <v>95.537499999999994</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="39">
         <v>51.232500000000002</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="40">
         <v>45.327500000000001</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="31">
         <f t="shared" ref="O5" si="0">O4+1</f>
         <v>206</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="33" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5986,98 +5986,98 @@
       <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="32">
         <v>45034.020833333336</v>
       </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
+      <c r="K6" s="31">
+        <v>0</v>
+      </c>
+      <c r="L6" s="31">
         <v>97</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="31">
         <v>59.16</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="35">
         <v>68.435000000000002</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="47">
         <v>222</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="33" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="32">
         <v>45034</v>
       </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="C7" s="31">
+        <v>0</v>
+      </c>
+      <c r="D7" s="31">
         <v>97</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="31">
         <v>40.4</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="31">
         <v>56.48</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="32">
         <v>45034.1875</v>
       </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="38">
+      <c r="K7" s="31">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31">
         <v>96.95</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="34">
         <v>48.467500000000001</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="37">
         <v>66.542500000000004</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="47">
         <v>207</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="32">
         <v>45034</v>
       </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="C8" s="31">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
         <v>97</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="31">
         <v>45.64</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="31">
         <v>62.36</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="31" t="s">
         <v>176</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -6106,25 +6106,25 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="32">
         <v>45034</v>
       </c>
-      <c r="C9" s="38">
-        <v>0</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="C9" s="31">
+        <v>0</v>
+      </c>
+      <c r="D9" s="31">
         <v>97</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="31">
         <v>49.2</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="31">
         <v>67.64</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="31" t="s">
         <v>178</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -6154,98 +6154,98 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="38">
         <v>45033</v>
       </c>
-      <c r="C10" s="38">
-        <v>0</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
         <v>95.5</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="31">
         <v>50.12</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="31">
         <v>43.74</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="36">
         <v>45034.6875</v>
       </c>
-      <c r="K10" s="38">
-        <v>0</v>
-      </c>
-      <c r="L10" s="38">
+      <c r="K10" s="31">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31">
         <v>92.174999999999997</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="31">
         <v>78.710000000000008</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="35">
         <v>47.094999999999999</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="31">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="32">
         <v>45033</v>
       </c>
-      <c r="C11" s="38">
-        <v>0</v>
-      </c>
-      <c r="D11" s="38">
+      <c r="C11" s="31">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
         <v>94.2</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="31">
         <v>106.35</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="31">
         <v>74.72</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="36">
         <v>45034.895833333336</v>
       </c>
-      <c r="K11" s="38">
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31">
         <v>97</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="31">
         <v>45.419999999999995</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="37">
         <v>78.826666666666668</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="31">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="33" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6271,52 +6271,52 @@
       <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="36">
         <v>45035.104166666664</v>
       </c>
-      <c r="K12" s="38">
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31">
         <v>95.074999999999989</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="34">
         <v>74.752499999999998</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="37">
         <v>68.867500000000007</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="31">
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="33" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="32">
         <v>45033</v>
       </c>
-      <c r="C13" s="38">
-        <v>0</v>
-      </c>
-      <c r="D13" s="38">
+      <c r="C13" s="31">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31">
         <v>95.4</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="31">
         <v>50.4</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="31">
         <v>44.83</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="31" t="s">
         <v>191</v>
       </c>
       <c r="H13" t="s">
@@ -6370,29 +6370,29 @@
       <c r="G14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="32">
         <v>45035.520833333336</v>
       </c>
-      <c r="K14" s="38">
-        <v>0</v>
-      </c>
-      <c r="L14" s="38">
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="31">
         <v>95.75</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="31">
         <v>56.59</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="35">
         <v>57.344999999999999</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="31">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6445,25 +6445,25 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="32">
         <v>45033</v>
       </c>
-      <c r="C16" s="38">
-        <v>0</v>
-      </c>
-      <c r="D16" s="38">
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
         <v>95.55</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="31">
         <v>53.47</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="31">
         <v>46.82</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="31" t="s">
         <v>195</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -6541,25 +6541,25 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="32">
         <v>45033</v>
       </c>
-      <c r="C18" s="38">
-        <v>0</v>
-      </c>
-      <c r="D18" s="38">
+      <c r="C18" s="31">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31">
         <v>94.2</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="31">
         <v>101.59</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="31">
         <v>71.680000000000007</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="31" t="s">
         <v>198</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -6610,29 +6610,29 @@
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="36">
         <v>45037.395833333336</v>
       </c>
-      <c r="K19" s="38">
-        <v>0</v>
-      </c>
-      <c r="L19" s="46">
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="39">
         <v>97.166666666666671</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="39">
         <v>27.229999999999997</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="40">
         <v>49.800000000000004</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="31">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="P19" s="40" t="s">
+      <c r="P19" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6876,25 +6876,25 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="38">
         <v>45034</v>
       </c>
-      <c r="C25" s="38">
-        <v>0</v>
-      </c>
-      <c r="D25" s="38">
+      <c r="C25" s="31">
+        <v>0</v>
+      </c>
+      <c r="D25" s="31">
         <v>97.1</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="31">
         <v>51.48</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="31">
         <v>62.56</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="31" t="s">
         <v>181</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -6924,25 +6924,25 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="32">
         <v>45033</v>
       </c>
-      <c r="C26" s="38">
-        <v>0</v>
-      </c>
-      <c r="D26" s="38">
+      <c r="C26" s="31">
+        <v>0</v>
+      </c>
+      <c r="D26" s="31">
         <v>95.7</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="31">
         <v>50.94</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="31">
         <v>45.92</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="31" t="s">
         <v>197</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -6972,25 +6972,25 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="32">
         <v>45033</v>
       </c>
-      <c r="C27" s="38">
-        <v>0</v>
-      </c>
-      <c r="D27" s="38">
+      <c r="C27" s="31">
+        <v>0</v>
+      </c>
+      <c r="D27" s="31">
         <v>94.1</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="31">
         <v>110.69</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="31">
         <v>77.61</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="31" t="s">
         <v>202</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -7020,25 +7020,25 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="32">
         <v>45035</v>
       </c>
-      <c r="C28" s="38">
-        <v>0</v>
-      </c>
-      <c r="D28" s="38">
+      <c r="C28" s="31">
+        <v>0</v>
+      </c>
+      <c r="D28" s="31">
         <v>95.8</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="31">
         <v>52.71</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="31">
         <v>55.5</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="31" t="s">
         <v>219</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -7164,25 +7164,25 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="32">
         <v>45034</v>
       </c>
-      <c r="C31" s="38">
-        <v>0</v>
-      </c>
-      <c r="D31" s="38">
+      <c r="C31" s="31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="31">
         <v>96.8</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="31">
         <v>58.63</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="31">
         <v>79.69</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="31" t="s">
         <v>180</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -7212,25 +7212,25 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="38">
         <v>45034</v>
       </c>
-      <c r="C32" s="38">
-        <v>0</v>
-      </c>
-      <c r="D32" s="38">
+      <c r="C32" s="31">
+        <v>0</v>
+      </c>
+      <c r="D32" s="31">
         <v>96.9</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="31">
         <v>65.17</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="31">
         <v>73.819999999999993</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="31" t="s">
         <v>185</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -7260,25 +7260,25 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="32">
         <v>45034</v>
       </c>
-      <c r="C33" s="38">
-        <v>0</v>
-      </c>
-      <c r="D33" s="38">
+      <c r="C33" s="31">
+        <v>0</v>
+      </c>
+      <c r="D33" s="31">
         <v>96.9</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="31">
         <v>65.83</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="31">
         <v>73.38</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="31" t="s">
         <v>187</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -7780,25 +7780,25 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="38">
         <v>45034</v>
       </c>
-      <c r="C44" s="38">
-        <v>0</v>
-      </c>
-      <c r="D44" s="38">
+      <c r="C44" s="31">
+        <v>0</v>
+      </c>
+      <c r="D44" s="31">
         <v>97.1</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="31">
         <v>54.16</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="31">
         <v>63.98</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="31" t="s">
         <v>183</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -8109,25 +8109,25 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="32">
         <v>45046</v>
       </c>
-      <c r="C51" s="38">
-        <v>0</v>
-      </c>
-      <c r="D51" s="38">
+      <c r="C51" s="31">
+        <v>0</v>
+      </c>
+      <c r="D51" s="31">
         <v>94.8</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="31">
         <v>63.56</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="31">
         <v>74.05</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="31" t="s">
         <v>137</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -8203,96 +8203,96 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="32">
         <v>45046</v>
       </c>
-      <c r="C53" s="38">
-        <v>0</v>
-      </c>
-      <c r="D53" s="38">
+      <c r="C53" s="31">
+        <v>0</v>
+      </c>
+      <c r="D53" s="31">
         <v>94.9</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="31">
         <v>85.89</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="31">
         <v>79.16</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="I53" s="38" t="s">
+      <c r="I53" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="J53" s="39">
+      <c r="J53" s="32">
         <v>45046.75</v>
       </c>
-      <c r="K53" s="38">
-        <v>0</v>
-      </c>
-      <c r="L53" s="38">
+      <c r="K53" s="31">
+        <v>0</v>
+      </c>
+      <c r="L53" s="31">
         <v>94.8</v>
       </c>
-      <c r="M53" s="38">
+      <c r="M53" s="31">
         <v>63.56</v>
       </c>
-      <c r="N53" s="42">
+      <c r="N53" s="35">
         <v>74.05</v>
       </c>
-      <c r="O53" s="54">
+      <c r="O53" s="47">
         <v>323</v>
       </c>
-      <c r="P53" s="40" t="s">
+      <c r="P53" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="39">
+      <c r="B54" s="32">
         <v>45047</v>
       </c>
-      <c r="C54" s="38">
-        <v>0</v>
-      </c>
-      <c r="D54" s="38">
+      <c r="C54" s="31">
+        <v>0</v>
+      </c>
+      <c r="D54" s="31">
         <v>97</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="31">
         <v>44.99</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="31">
         <v>102.87</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I54" s="38" t="s">
+      <c r="I54" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="J54" s="39">
+      <c r="J54" s="32">
         <v>45046.958333333336</v>
       </c>
-      <c r="K54" s="38">
-        <v>0</v>
-      </c>
-      <c r="L54" s="38">
+      <c r="K54" s="31">
+        <v>0</v>
+      </c>
+      <c r="L54" s="31">
         <v>94.9</v>
       </c>
-      <c r="M54" s="38">
+      <c r="M54" s="31">
         <v>85.89</v>
       </c>
-      <c r="N54" s="42">
+      <c r="N54" s="35">
         <v>79.16</v>
       </c>
-      <c r="O54" s="54">
+      <c r="O54" s="47">
         <v>324</v>
       </c>
-      <c r="P54" s="40" t="s">
+      <c r="P54" s="33" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8391,192 +8391,192 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="39">
+      <c r="B57" s="32">
         <v>45047</v>
       </c>
-      <c r="C57" s="38">
-        <v>0</v>
-      </c>
-      <c r="D57" s="38">
+      <c r="C57" s="31">
+        <v>0</v>
+      </c>
+      <c r="D57" s="31">
         <v>95.4</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="31">
         <v>50.13</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="31">
         <v>58.66</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="I57" s="38" t="s">
+      <c r="I57" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="J57" s="39">
+      <c r="J57" s="32">
         <v>45047.583333333336</v>
       </c>
-      <c r="K57" s="38">
-        <v>0</v>
-      </c>
-      <c r="L57" s="38">
+      <c r="K57" s="31">
+        <v>0</v>
+      </c>
+      <c r="L57" s="31">
         <v>95.4</v>
       </c>
-      <c r="M57" s="38">
+      <c r="M57" s="31">
         <v>50.13</v>
       </c>
-      <c r="N57" s="42">
+      <c r="N57" s="35">
         <v>58.66</v>
       </c>
-      <c r="O57" s="54">
+      <c r="O57" s="47">
         <v>327</v>
       </c>
-      <c r="P57" s="40" t="s">
+      <c r="P57" s="33" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="39">
+      <c r="B58" s="32">
         <v>45048</v>
       </c>
-      <c r="C58" s="38">
-        <v>0</v>
-      </c>
-      <c r="D58" s="38">
+      <c r="C58" s="31">
+        <v>0</v>
+      </c>
+      <c r="D58" s="31">
         <v>96.9</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="31">
         <v>31.62</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="31">
         <v>76.459999999999994</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="G58" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="38" t="s">
+      <c r="I58" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="J58" s="39">
+      <c r="J58" s="32">
         <v>45047.833333333336</v>
       </c>
-      <c r="K58" s="38">
-        <v>0</v>
-      </c>
-      <c r="L58" s="38">
+      <c r="K58" s="31">
+        <v>0</v>
+      </c>
+      <c r="L58" s="31">
         <v>97</v>
       </c>
-      <c r="M58" s="38">
+      <c r="M58" s="31">
         <v>44.99</v>
       </c>
-      <c r="N58" s="42">
+      <c r="N58" s="35">
         <v>102.87</v>
       </c>
-      <c r="O58" s="54">
+      <c r="O58" s="47">
         <v>343</v>
       </c>
-      <c r="P58" s="40" t="s">
+      <c r="P58" s="33" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="39">
+      <c r="B59" s="32">
         <v>45048</v>
       </c>
-      <c r="C59" s="38">
-        <v>0</v>
-      </c>
-      <c r="D59" s="38">
+      <c r="C59" s="31">
+        <v>0</v>
+      </c>
+      <c r="D59" s="31">
         <v>96.6</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="31">
         <v>35.729999999999997</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="31">
         <v>68.709999999999994</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I59" s="38" t="s">
+      <c r="I59" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J59" s="39">
+      <c r="J59" s="32">
         <v>45048.125</v>
       </c>
-      <c r="K59" s="38">
-        <v>0</v>
-      </c>
-      <c r="L59" s="38">
+      <c r="K59" s="31">
+        <v>0</v>
+      </c>
+      <c r="L59" s="31">
         <v>96.6</v>
       </c>
-      <c r="M59" s="38">
+      <c r="M59" s="31">
         <v>35.729999999999997</v>
       </c>
-      <c r="N59" s="42">
+      <c r="N59" s="35">
         <v>68.709999999999994</v>
       </c>
-      <c r="O59" s="38">
+      <c r="O59" s="31">
         <f t="shared" ref="O59:O65" si="3">O58+1</f>
         <v>344</v>
       </c>
-      <c r="P59" s="40" t="s">
+      <c r="P59" s="33" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="39">
+      <c r="B60" s="32">
         <v>45048</v>
       </c>
-      <c r="C60" s="38">
-        <v>0</v>
-      </c>
-      <c r="D60" s="38">
+      <c r="C60" s="31">
+        <v>0</v>
+      </c>
+      <c r="D60" s="31">
         <v>98</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60" s="31">
         <v>25.42</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="31">
         <v>78.58</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="I60" s="38" t="s">
+      <c r="I60" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="J60" s="39">
+      <c r="J60" s="32">
         <v>45048.416666666664</v>
       </c>
-      <c r="K60" s="38">
-        <v>0</v>
-      </c>
-      <c r="L60" s="38">
+      <c r="K60" s="31">
+        <v>0</v>
+      </c>
+      <c r="L60" s="31">
         <v>96.9</v>
       </c>
-      <c r="M60" s="38">
+      <c r="M60" s="31">
         <v>31.62</v>
       </c>
-      <c r="N60" s="42">
+      <c r="N60" s="35">
         <v>76.459999999999994</v>
       </c>
-      <c r="O60" s="38">
+      <c r="O60" s="31">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="P60" s="40" t="s">
+      <c r="P60" s="33" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8602,29 +8602,29 @@
       <c r="G61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I61" s="38" t="s">
+      <c r="I61" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="J61" s="39">
+      <c r="J61" s="32">
         <v>45048.708333333336</v>
       </c>
-      <c r="K61" s="38">
-        <v>0</v>
-      </c>
-      <c r="L61" s="38">
+      <c r="K61" s="31">
+        <v>0</v>
+      </c>
+      <c r="L61" s="31">
         <v>98</v>
       </c>
-      <c r="M61" s="38">
+      <c r="M61" s="31">
         <v>25.42</v>
       </c>
-      <c r="N61" s="42">
+      <c r="N61" s="35">
         <v>78.58</v>
       </c>
-      <c r="O61" s="38">
+      <c r="O61" s="31">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="P61" s="40" t="s">
+      <c r="P61" s="33" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8725,25 +8725,25 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="39">
+      <c r="B64" s="32">
         <v>45049</v>
       </c>
-      <c r="C64" s="38">
-        <v>0</v>
-      </c>
-      <c r="D64" s="38">
+      <c r="C64" s="31">
+        <v>0</v>
+      </c>
+      <c r="D64" s="31">
         <v>94.6</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="31">
         <v>68.760000000000005</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="31">
         <v>86.67</v>
       </c>
-      <c r="G64" s="38" t="s">
+      <c r="G64" s="31" t="s">
         <v>118</v>
       </c>
       <c r="I64" s="2" t="s">
@@ -8794,29 +8794,29 @@
       <c r="G65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I65" s="38" t="s">
+      <c r="I65" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="J65" s="39">
+      <c r="J65" s="32">
         <v>45049.833333333336</v>
       </c>
-      <c r="K65" s="38">
-        <v>0</v>
-      </c>
-      <c r="L65" s="38">
+      <c r="K65" s="31">
+        <v>0</v>
+      </c>
+      <c r="L65" s="31">
         <v>94.6</v>
       </c>
-      <c r="M65" s="38">
+      <c r="M65" s="31">
         <v>68.760000000000005</v>
       </c>
-      <c r="N65" s="42">
+      <c r="N65" s="35">
         <v>86.67</v>
       </c>
-      <c r="O65" s="38">
+      <c r="O65" s="31">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="P65" s="40" t="s">
+      <c r="P65" s="33" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8889,28 +8889,28 @@
       <c r="G67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I67" s="38" t="s">
+      <c r="I67" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="J67" s="39">
+      <c r="J67" s="32">
         <v>45050.083333333336</v>
       </c>
-      <c r="K67" s="38">
-        <v>0</v>
-      </c>
-      <c r="L67" s="38">
+      <c r="K67" s="31">
+        <v>0</v>
+      </c>
+      <c r="L67" s="31">
         <v>96.4</v>
       </c>
-      <c r="M67" s="38">
+      <c r="M67" s="31">
         <v>50.92</v>
       </c>
-      <c r="N67" s="42">
+      <c r="N67" s="35">
         <v>71.05</v>
       </c>
-      <c r="O67" s="54">
+      <c r="O67" s="47">
         <v>351</v>
       </c>
-      <c r="P67" s="40" t="s">
+      <c r="P67" s="33" t="s">
         <v>439</v>
       </c>
     </row>
@@ -9056,25 +9056,25 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="39">
+      <c r="B71" s="32">
         <v>45050</v>
       </c>
-      <c r="C71" s="38">
-        <v>0</v>
-      </c>
-      <c r="D71" s="38">
+      <c r="C71" s="31">
+        <v>0</v>
+      </c>
+      <c r="D71" s="31">
         <v>94.1</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="31">
         <v>77.489999999999995</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="31">
         <v>86.2</v>
       </c>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="31" t="s">
         <v>122</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -9150,96 +9150,96 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="39">
+      <c r="B73" s="32">
         <v>45050</v>
       </c>
-      <c r="C73" s="38">
-        <v>0</v>
-      </c>
-      <c r="D73" s="38">
+      <c r="C73" s="31">
+        <v>0</v>
+      </c>
+      <c r="D73" s="31">
         <v>96.2</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="31">
         <v>33.08</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="31">
         <v>50.79</v>
       </c>
-      <c r="G73" s="38" t="s">
+      <c r="G73" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="I73" s="38" t="s">
+      <c r="I73" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="32">
         <v>45050.958333333336</v>
       </c>
-      <c r="K73" s="38">
-        <v>0</v>
-      </c>
-      <c r="L73" s="38">
+      <c r="K73" s="31">
+        <v>0</v>
+      </c>
+      <c r="L73" s="31">
         <v>96.2</v>
       </c>
-      <c r="M73" s="38">
+      <c r="M73" s="31">
         <v>33.08</v>
       </c>
-      <c r="N73" s="42">
+      <c r="N73" s="35">
         <v>50.79</v>
       </c>
-      <c r="O73" s="54">
+      <c r="O73" s="47">
         <v>356</v>
       </c>
-      <c r="P73" s="40" t="s">
+      <c r="P73" s="33" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="39">
+      <c r="B74" s="32">
         <v>45050</v>
       </c>
-      <c r="C74" s="38">
-        <v>0</v>
-      </c>
-      <c r="D74" s="38">
+      <c r="C74" s="31">
+        <v>0</v>
+      </c>
+      <c r="D74" s="31">
         <v>96.4</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74" s="31">
         <v>50.92</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="31">
         <v>71.05</v>
       </c>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I74" s="38" t="s">
+      <c r="I74" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="32">
         <v>45051.083333333336</v>
       </c>
-      <c r="K74" s="38">
-        <v>0</v>
-      </c>
-      <c r="L74" s="38">
+      <c r="K74" s="31">
+        <v>0</v>
+      </c>
+      <c r="L74" s="31">
         <v>94.1</v>
       </c>
-      <c r="M74" s="38">
+      <c r="M74" s="31">
         <v>77.489999999999995</v>
       </c>
-      <c r="N74" s="42">
+      <c r="N74" s="35">
         <v>86.2</v>
       </c>
-      <c r="O74" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="P74" s="40" t="s">
+      <c r="O74" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" s="33" t="s">
         <v>446</v>
       </c>
     </row>
@@ -9267,140 +9267,140 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B76" s="39">
+      <c r="B76" s="32">
         <v>45035</v>
       </c>
-      <c r="C76" s="38">
-        <v>0</v>
-      </c>
-      <c r="D76" s="38">
+      <c r="C76" s="31">
+        <v>0</v>
+      </c>
+      <c r="D76" s="31">
         <v>95.8</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="31">
         <v>56.35</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="31">
         <v>57.44</v>
       </c>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B77" s="39">
+      <c r="B77" s="32">
         <v>45035</v>
       </c>
-      <c r="C77" s="38">
-        <v>0</v>
-      </c>
-      <c r="D77" s="38">
+      <c r="C77" s="31">
+        <v>0</v>
+      </c>
+      <c r="D77" s="31">
         <v>95.7</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="31">
         <v>57.6</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="31">
         <v>57.36</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="31" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B78" s="39">
+      <c r="B78" s="32">
         <v>45035</v>
       </c>
-      <c r="C78" s="38">
-        <v>0</v>
-      </c>
-      <c r="D78" s="38">
+      <c r="C78" s="31">
+        <v>0</v>
+      </c>
+      <c r="D78" s="31">
         <v>95.7</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="31">
         <v>59.7</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="31">
         <v>59.08</v>
       </c>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="43">
+      <c r="B79" s="36">
         <v>45034</v>
       </c>
-      <c r="C79" s="38">
-        <v>0</v>
-      </c>
-      <c r="D79" s="38">
+      <c r="C79" s="31">
+        <v>0</v>
+      </c>
+      <c r="D79" s="31">
         <v>97.4</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="31">
         <v>43.36</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="31">
         <v>82.77</v>
       </c>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="31" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="B80" s="43">
+      <c r="B80" s="36">
         <v>45034</v>
       </c>
-      <c r="C80" s="38">
-        <v>0</v>
-      </c>
-      <c r="D80" s="38">
+      <c r="C80" s="31">
+        <v>0</v>
+      </c>
+      <c r="D80" s="31">
         <v>96.9</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="31">
         <v>46.16</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="31">
         <v>78.34</v>
       </c>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="B81" s="43">
+      <c r="B81" s="36">
         <v>45034</v>
       </c>
-      <c r="C81" s="38">
-        <v>0</v>
-      </c>
-      <c r="D81" s="38">
+      <c r="C81" s="31">
+        <v>0</v>
+      </c>
+      <c r="D81" s="31">
         <v>96.7</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="31">
         <v>46.74</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="31">
         <v>75.37</v>
       </c>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="31" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9474,94 +9474,94 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="43">
+      <c r="B85" s="36">
         <v>45034</v>
       </c>
-      <c r="C85" s="38">
-        <v>0</v>
-      </c>
-      <c r="D85" s="38">
+      <c r="C85" s="31">
+        <v>0</v>
+      </c>
+      <c r="D85" s="31">
         <v>92.3</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="31">
         <v>75.239999999999995</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="31">
         <v>45.95</v>
       </c>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="31" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="B86" s="43">
+      <c r="B86" s="36">
         <v>45034</v>
       </c>
-      <c r="C86" s="38">
-        <v>0</v>
-      </c>
-      <c r="D86" s="38">
+      <c r="C86" s="31">
+        <v>0</v>
+      </c>
+      <c r="D86" s="31">
         <v>92.2</v>
       </c>
-      <c r="E86" s="38">
+      <c r="E86" s="31">
         <v>76.430000000000007</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="31">
         <v>45.44</v>
       </c>
-      <c r="G86" s="38" t="s">
+      <c r="G86" s="31" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B87" s="45">
+      <c r="B87" s="38">
         <v>45034</v>
       </c>
-      <c r="C87" s="38">
-        <v>0</v>
-      </c>
-      <c r="D87" s="38">
+      <c r="C87" s="31">
+        <v>0</v>
+      </c>
+      <c r="D87" s="31">
         <v>92</v>
       </c>
-      <c r="E87" s="38">
+      <c r="E87" s="31">
         <v>82.89</v>
       </c>
-      <c r="F87" s="38">
+      <c r="F87" s="31">
         <v>48.4</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="31" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="B88" s="43">
+      <c r="B88" s="36">
         <v>45044</v>
       </c>
-      <c r="C88" s="38">
-        <v>0</v>
-      </c>
-      <c r="D88" s="38">
+      <c r="C88" s="31">
+        <v>0</v>
+      </c>
+      <c r="D88" s="31">
         <v>92.2</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="31">
         <v>80.28</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="31">
         <v>48.59</v>
       </c>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="31" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9635,71 +9635,71 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="36">
         <v>45037</v>
       </c>
-      <c r="C92" s="38">
-        <v>0</v>
-      </c>
-      <c r="D92" s="38">
+      <c r="C92" s="31">
+        <v>0</v>
+      </c>
+      <c r="D92" s="31">
         <v>97.2</v>
       </c>
-      <c r="E92" s="38">
+      <c r="E92" s="31">
         <v>39.35</v>
       </c>
-      <c r="F92" s="38">
+      <c r="F92" s="31">
         <v>72.25</v>
       </c>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="31" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="43">
+      <c r="B93" s="36">
         <v>45037</v>
       </c>
-      <c r="C93" s="38">
-        <v>0</v>
-      </c>
-      <c r="D93" s="38">
+      <c r="C93" s="31">
+        <v>0</v>
+      </c>
+      <c r="D93" s="31">
         <v>97.2</v>
       </c>
-      <c r="E93" s="38">
+      <c r="E93" s="31">
         <v>31.45</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F93" s="31">
         <v>59.67</v>
       </c>
-      <c r="G93" s="38" t="s">
+      <c r="G93" s="31" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B94" s="43">
+      <c r="B94" s="36">
         <v>45037</v>
       </c>
-      <c r="C94" s="38">
-        <v>0</v>
-      </c>
-      <c r="D94" s="38">
+      <c r="C94" s="31">
+        <v>0</v>
+      </c>
+      <c r="D94" s="31">
         <v>97.1</v>
       </c>
-      <c r="E94" s="38">
+      <c r="E94" s="31">
         <v>38.119999999999997</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="31">
         <v>67.28</v>
       </c>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -9727,94 +9727,94 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="43">
+      <c r="B96" s="36">
         <v>45035</v>
       </c>
-      <c r="C96" s="38">
-        <v>0</v>
-      </c>
-      <c r="D96" s="38">
+      <c r="C96" s="31">
+        <v>0</v>
+      </c>
+      <c r="D96" s="31">
         <v>95.3</v>
       </c>
-      <c r="E96" s="38">
+      <c r="E96" s="31">
         <v>61.54</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="31">
         <v>60.65</v>
       </c>
-      <c r="G96" s="38" t="s">
+      <c r="G96" s="31" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="B97" s="43">
+      <c r="B97" s="36">
         <v>45035</v>
       </c>
-      <c r="C97" s="38">
-        <v>0</v>
-      </c>
-      <c r="D97" s="38">
+      <c r="C97" s="31">
+        <v>0</v>
+      </c>
+      <c r="D97" s="31">
         <v>95.1</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E97" s="31">
         <v>66.89</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="31">
         <v>64.42</v>
       </c>
-      <c r="G97" s="38" t="s">
+      <c r="G97" s="31" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="B98" s="43">
+      <c r="B98" s="36">
         <v>45035</v>
       </c>
-      <c r="C98" s="38">
-        <v>0</v>
-      </c>
-      <c r="D98" s="38">
+      <c r="C98" s="31">
+        <v>0</v>
+      </c>
+      <c r="D98" s="31">
         <v>95</v>
       </c>
-      <c r="E98" s="38">
+      <c r="E98" s="31">
         <v>84.06</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="31">
         <v>74.489999999999995</v>
       </c>
-      <c r="G98" s="38" t="s">
+      <c r="G98" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B99" s="43">
+      <c r="B99" s="36">
         <v>45035</v>
       </c>
-      <c r="C99" s="38">
-        <v>0</v>
-      </c>
-      <c r="D99" s="38">
+      <c r="C99" s="31">
+        <v>0</v>
+      </c>
+      <c r="D99" s="31">
         <v>94.9</v>
       </c>
-      <c r="E99" s="38">
+      <c r="E99" s="31">
         <v>86.52</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="31">
         <v>75.91</v>
       </c>
-      <c r="G99" s="38" t="s">
+      <c r="G99" s="31" t="s">
         <v>250</v>
       </c>
     </row>
@@ -10089,8 +10089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47770336-139B-4E1D-B90D-A41F00945441}">
   <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10114,10 +10114,10 @@
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
@@ -10133,7 +10133,7 @@
       <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="30" t="s">
         <v>340</v>
       </c>
       <c r="J3" s="26" t="s">
@@ -10180,28 +10180,28 @@
       <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="36">
         <v>45033.6875</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="31">
         <v>190</v>
       </c>
-      <c r="M4" s="38">
-        <v>0</v>
-      </c>
-      <c r="N4" s="41">
+      <c r="M4" s="31">
+        <v>0</v>
+      </c>
+      <c r="N4" s="34">
         <v>93.4</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="34">
         <v>103.30500000000001</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="34">
         <v>81.800000000000011</v>
       </c>
     </row>
@@ -10227,75 +10227,75 @@
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="46">
         <v>45033.854166666664</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="31">
         <v>191</v>
       </c>
-      <c r="M5" s="38">
-        <v>0</v>
-      </c>
-      <c r="N5" s="41">
+      <c r="M5" s="31">
+        <v>0</v>
+      </c>
+      <c r="N5" s="34">
         <v>94.4</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="34">
         <v>65.48</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="34">
         <v>51.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="32">
         <v>45049</v>
       </c>
-      <c r="C6" s="38">
-        <v>0</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="C6" s="31">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31">
         <v>96.4</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="31">
         <v>39.619999999999997</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="31">
         <v>54.92</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="32">
         <v>45034.020833333336</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="31">
         <v>192</v>
       </c>
-      <c r="M6" s="38">
-        <v>0</v>
-      </c>
-      <c r="N6" s="41">
+      <c r="M6" s="31">
+        <v>0</v>
+      </c>
+      <c r="N6" s="34">
         <v>97.05</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="34">
         <v>73.675000000000011</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="34">
         <v>91.46</v>
       </c>
     </row>
@@ -10321,31 +10321,31 @@
       <c r="G7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="36">
         <v>45034.1875</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="31">
         <v>193</v>
       </c>
-      <c r="M7" s="38">
-        <v>0</v>
-      </c>
-      <c r="N7" s="41">
+      <c r="M7" s="31">
+        <v>0</v>
+      </c>
+      <c r="N7" s="34">
         <v>96.9</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="34">
         <v>48.895000000000003</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="34">
         <v>58.709999999999994</v>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       <c r="G8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="29" t="s">
         <v>123</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="G9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="29" t="s">
         <v>102</v>
       </c>
@@ -10467,29 +10467,29 @@
       <c r="G10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="40" t="s">
+      <c r="H10" s="56"/>
+      <c r="I10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="36">
         <v>45034.6875</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="31">
         <v>213</v>
       </c>
-      <c r="M10" s="38">
-        <v>0</v>
-      </c>
-      <c r="N10" s="41">
+      <c r="M10" s="31">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34">
         <v>92.949999999999989</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="34">
         <v>93.474999999999994</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="34">
         <v>56.024999999999999</v>
       </c>
     </row>
@@ -10515,29 +10515,29 @@
       <c r="G11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="44">
         <v>45034.895833333336</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="31">
         <v>214</v>
       </c>
-      <c r="M11" s="38">
-        <v>0</v>
-      </c>
-      <c r="N11" s="41">
+      <c r="M11" s="31">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34">
         <v>95.55</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="34">
         <v>53.784999999999997</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="34">
         <v>66.137500000000003</v>
       </c>
     </row>
@@ -10563,29 +10563,29 @@
       <c r="G12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="40" t="s">
+      <c r="H12" s="56"/>
+      <c r="I12" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="36">
         <v>45035.104166666664</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="31">
         <v>215</v>
       </c>
-      <c r="M12" s="38">
-        <v>0</v>
-      </c>
-      <c r="N12" s="41">
+      <c r="M12" s="31">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
         <v>96.633333333333326</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="34">
         <v>47.579999999999991</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="34">
         <v>57.156666666666666</v>
       </c>
     </row>
@@ -10611,29 +10611,29 @@
       <c r="G13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="40" t="s">
+      <c r="H13" s="56"/>
+      <c r="I13" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="36">
         <v>45035.3125</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="31">
         <v>216</v>
       </c>
-      <c r="M13" s="38">
-        <v>0</v>
-      </c>
-      <c r="N13" s="41">
+      <c r="M13" s="31">
+        <v>0</v>
+      </c>
+      <c r="N13" s="34">
         <v>97.066666666666677</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="34">
         <v>30.72</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="34">
         <v>47.137500000000003</v>
       </c>
     </row>
@@ -10659,7 +10659,7 @@
       <c r="G14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="35"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="29" t="s">
         <v>104</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="G15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="56"/>
       <c r="I15" s="29" t="s">
         <v>9</v>
       </c>
@@ -10755,29 +10755,29 @@
       <c r="G16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="40" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="49">
         <v>45035.9375</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="31">
         <v>219</v>
       </c>
-      <c r="M16" s="38">
-        <v>0</v>
-      </c>
-      <c r="N16" s="41">
+      <c r="M16" s="31">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
         <v>96.800000000000011</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="34">
         <v>22.36</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="34">
         <v>38.814999999999998</v>
       </c>
     </row>
@@ -10803,29 +10803,29 @@
       <c r="G17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="40" t="s">
+      <c r="H17" s="56"/>
+      <c r="I17" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="49">
         <v>45036.145833333336</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="31">
         <v>220</v>
       </c>
-      <c r="M17" s="38">
-        <v>0</v>
-      </c>
-      <c r="N17" s="41">
+      <c r="M17" s="31">
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
         <v>96.8</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="34">
         <v>30.83</v>
       </c>
-      <c r="P17" s="41">
+      <c r="P17" s="34">
         <v>52.1</v>
       </c>
     </row>
@@ -10851,7 +10851,7 @@
       <c r="G18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="29" t="s">
         <v>95</v>
       </c>
@@ -10899,7 +10899,7 @@
       <c r="G19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="29" t="s">
         <v>77</v>
       </c>
@@ -10947,29 +10947,29 @@
       <c r="G20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="40" t="s">
+      <c r="H20" s="56"/>
+      <c r="I20" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="49">
         <v>45036.979166666664</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="31">
         <v>237</v>
       </c>
-      <c r="M20" s="38">
-        <v>0</v>
-      </c>
-      <c r="N20" s="41">
+      <c r="M20" s="31">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
         <v>97</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="34">
         <v>24.91</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="34">
         <v>58.21</v>
       </c>
     </row>
@@ -10995,7 +10995,7 @@
       <c r="G21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="35"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="29" t="s">
         <v>101</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="G22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="35"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="29" t="s">
         <v>133</v>
       </c>
@@ -11091,29 +11091,29 @@
       <c r="G23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="40" t="s">
+      <c r="H23" s="56"/>
+      <c r="I23" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="44">
         <v>45037.8125</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="31">
         <v>240</v>
       </c>
-      <c r="M23" s="38">
-        <v>0</v>
-      </c>
-      <c r="N23" s="41">
+      <c r="M23" s="31">
+        <v>0</v>
+      </c>
+      <c r="N23" s="34">
         <v>95.85</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="34">
         <v>67.125</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="34">
         <v>75.8</v>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       <c r="G24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="29" t="s">
         <v>8</v>
       </c>
@@ -11187,55 +11187,55 @@
       <c r="G25" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="40" t="s">
+      <c r="H25" s="56"/>
+      <c r="I25" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="42">
         <v>45038.229166666664</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="31">
         <v>242</v>
       </c>
-      <c r="M25" s="38">
-        <v>0</v>
-      </c>
-      <c r="N25" s="41">
+      <c r="M25" s="31">
+        <v>0</v>
+      </c>
+      <c r="N25" s="34">
         <v>96.974999999999994</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="34">
         <v>51.682499999999997</v>
       </c>
-      <c r="P25" s="41">
+      <c r="P25" s="34">
         <v>80.920000000000016</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="32">
         <v>45050</v>
       </c>
-      <c r="C26" s="38">
-        <v>0</v>
-      </c>
-      <c r="D26" s="38">
+      <c r="C26" s="31">
+        <v>0</v>
+      </c>
+      <c r="D26" s="31">
         <v>96.2</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="31">
         <v>25.16</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="31">
         <v>30.57</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="53" t="s">
         <v>57</v>
       </c>
       <c r="I26" s="29" t="s">
@@ -11285,29 +11285,29 @@
       <c r="G27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="40" t="s">
+      <c r="H27" s="53"/>
+      <c r="I27" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="53">
+      <c r="K27" s="46">
         <v>45038.645833333336</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="31">
         <v>244</v>
       </c>
-      <c r="M27" s="38">
-        <v>0</v>
-      </c>
-      <c r="N27" s="41">
+      <c r="M27" s="31">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34">
         <v>96.333333333333329</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="34">
         <v>57.56</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="34">
         <v>65.026666666666657</v>
       </c>
     </row>
@@ -11333,29 +11333,29 @@
       <c r="G28" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="40" t="s">
+      <c r="H28" s="53"/>
+      <c r="I28" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="J28" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="42">
         <v>45038.854166666664</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="31">
         <v>245</v>
       </c>
-      <c r="M28" s="38">
-        <v>0</v>
-      </c>
-      <c r="N28" s="41">
+      <c r="M28" s="31">
+        <v>0</v>
+      </c>
+      <c r="N28" s="34">
         <v>95.375000000000014</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="34">
         <v>63.535000000000011</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="34">
         <v>59.204999999999998</v>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
       <c r="G29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="29" t="s">
         <v>342</v>
       </c>
@@ -11429,7 +11429,7 @@
       <c r="G30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="32"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="29" t="s">
         <v>343</v>
       </c>
@@ -11456,25 +11456,25 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="32">
         <v>45050</v>
       </c>
-      <c r="C31" s="38">
-        <v>0</v>
-      </c>
-      <c r="D31" s="38">
+      <c r="C31" s="31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="31">
         <v>97.1</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="31">
         <v>21.91</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="31">
         <v>39.799999999999997</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="31" t="s">
         <v>65</v>
       </c>
       <c r="H31" s="20"/>
@@ -11504,25 +11504,25 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="38">
         <v>45050</v>
       </c>
-      <c r="C32" s="38">
-        <v>0</v>
-      </c>
-      <c r="D32" s="38">
+      <c r="C32" s="31">
+        <v>0</v>
+      </c>
+      <c r="D32" s="31">
         <v>97.1</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="31">
         <v>23.65</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="31">
         <v>40.67</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="31" t="s">
         <v>66</v>
       </c>
       <c r="H32" s="20"/>
@@ -11552,72 +11552,72 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="32">
         <v>45050</v>
       </c>
-      <c r="C33" s="38">
-        <v>0</v>
-      </c>
-      <c r="D33" s="38">
+      <c r="C33" s="31">
+        <v>0</v>
+      </c>
+      <c r="D33" s="31">
         <v>97</v>
       </c>
-      <c r="E33" s="38">
-        <v>0</v>
-      </c>
-      <c r="F33" s="38">
-        <v>0</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="E33" s="31">
+        <v>0</v>
+      </c>
+      <c r="F33" s="31">
+        <v>0</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K33" s="49">
         <v>45040.083333333336</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="31">
         <v>250</v>
       </c>
-      <c r="M33" s="38">
-        <v>0</v>
-      </c>
-      <c r="N33" s="41">
+      <c r="M33" s="31">
+        <v>0</v>
+      </c>
+      <c r="N33" s="34">
         <v>97.3</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="34">
         <v>66.586666666666673</v>
       </c>
-      <c r="P33" s="41">
+      <c r="P33" s="34">
         <v>69.806666666666658</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="32">
         <v>45049</v>
       </c>
-      <c r="C34" s="38">
-        <v>0</v>
-      </c>
-      <c r="D34" s="38">
+      <c r="C34" s="31">
+        <v>0</v>
+      </c>
+      <c r="D34" s="31">
         <v>91.6</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="31">
         <v>76.510000000000005</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="31">
         <v>45.79</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="31" t="s">
         <v>70</v>
       </c>
       <c r="H34" t="s">
@@ -11649,169 +11649,169 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="32">
         <v>45049</v>
       </c>
-      <c r="C35" s="38">
-        <v>0</v>
-      </c>
-      <c r="D35" s="38">
+      <c r="C35" s="31">
+        <v>0</v>
+      </c>
+      <c r="D35" s="31">
         <v>90.9</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="31">
         <v>94.09</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="31">
         <v>53.77</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="J35" s="52" t="s">
+      <c r="J35" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="K35" s="53">
+      <c r="K35" s="46">
         <v>45040.5</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="31">
         <v>252</v>
       </c>
-      <c r="M35" s="38">
-        <v>0</v>
-      </c>
-      <c r="N35" s="41">
+      <c r="M35" s="31">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34">
         <v>96.533333333333346</v>
       </c>
-      <c r="O35" s="41">
+      <c r="O35" s="34">
         <v>46.75</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="34">
         <v>59.133333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="32">
         <v>45049</v>
       </c>
-      <c r="C36" s="38">
-        <v>0</v>
-      </c>
-      <c r="D36" s="38">
+      <c r="C36" s="31">
+        <v>0</v>
+      </c>
+      <c r="D36" s="31">
         <v>90.6</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="31">
         <v>90.7</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="31">
         <v>50.29</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="31" t="s">
         <v>76</v>
       </c>
       <c r="H36" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="J36" s="55" t="s">
+      <c r="J36" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="K36" s="56">
+      <c r="K36" s="49">
         <v>45040.708333333336</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="31">
         <v>253</v>
       </c>
-      <c r="M36" s="38">
-        <v>0</v>
-      </c>
-      <c r="N36" s="41">
+      <c r="M36" s="31">
+        <v>0</v>
+      </c>
+      <c r="N36" s="34">
         <v>96.2</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="34">
         <v>27.12</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="34">
         <v>48.05</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="32">
         <v>45051</v>
       </c>
-      <c r="C37" s="38">
-        <v>0</v>
-      </c>
-      <c r="D37" s="38">
+      <c r="C37" s="31">
+        <v>0</v>
+      </c>
+      <c r="D37" s="31">
         <v>96.8</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="31">
         <v>27.45</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="31">
         <v>46.41</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="J37" s="55" t="s">
+      <c r="J37" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="K37" s="56">
+      <c r="K37" s="49">
         <v>45040.916666666664</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="31">
         <v>269</v>
       </c>
-      <c r="M37" s="38">
-        <v>0</v>
-      </c>
-      <c r="N37" s="41">
+      <c r="M37" s="31">
+        <v>0</v>
+      </c>
+      <c r="N37" s="34">
         <v>97.05</v>
       </c>
-      <c r="O37" s="41">
+      <c r="O37" s="34">
         <v>14.59</v>
       </c>
-      <c r="P37" s="41">
+      <c r="P37" s="34">
         <v>25.344999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="32">
         <v>45051</v>
       </c>
-      <c r="C38" s="38">
-        <v>0</v>
-      </c>
-      <c r="D38" s="38">
+      <c r="C38" s="31">
+        <v>0</v>
+      </c>
+      <c r="D38" s="31">
         <v>96.4</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="31">
         <v>34.18</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="31">
         <v>54.43</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="31" t="s">
         <v>79</v>
       </c>
       <c r="I38" s="29" t="s">
@@ -11840,25 +11840,25 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="32">
         <v>45051</v>
       </c>
-      <c r="C39" s="38">
-        <v>0</v>
-      </c>
-      <c r="D39" s="38">
+      <c r="C39" s="31">
+        <v>0</v>
+      </c>
+      <c r="D39" s="31">
         <v>97</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="31">
         <v>23.69</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="31">
         <v>42.18</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="31" t="s">
         <v>82</v>
       </c>
       <c r="I39" s="29" t="s">
@@ -11887,25 +11887,25 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="38">
         <v>45051</v>
       </c>
-      <c r="C40" s="38">
-        <v>0</v>
-      </c>
-      <c r="D40" s="38">
+      <c r="C40" s="31">
+        <v>0</v>
+      </c>
+      <c r="D40" s="31">
         <v>96.8</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="31">
         <v>23.58</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="31">
         <v>39.93</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="31" t="s">
         <v>84</v>
       </c>
       <c r="I40" s="29" t="s">
@@ -11934,25 +11934,25 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="32">
         <v>45051</v>
       </c>
-      <c r="C41" s="38">
-        <v>0</v>
-      </c>
-      <c r="D41" s="38">
+      <c r="C41" s="31">
+        <v>0</v>
+      </c>
+      <c r="D41" s="31">
         <v>96.7</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="31">
         <v>29.56</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="31">
         <v>50.47</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="31" t="s">
         <v>86</v>
       </c>
       <c r="I41" s="29" t="s">
@@ -12169,25 +12169,25 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="39">
+      <c r="B46" s="32">
         <v>45048</v>
       </c>
-      <c r="C46" s="38">
-        <v>0</v>
-      </c>
-      <c r="D46" s="38">
+      <c r="C46" s="31">
+        <v>0</v>
+      </c>
+      <c r="D46" s="31">
         <v>95.6</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="31">
         <v>64.14</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="31">
         <v>87.02</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="31" t="s">
         <v>93</v>
       </c>
       <c r="I46" s="29" t="s">
@@ -12263,25 +12263,25 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="32">
         <v>45050</v>
       </c>
-      <c r="C48" s="38">
-        <v>0</v>
-      </c>
-      <c r="D48" s="38">
+      <c r="C48" s="31">
+        <v>0</v>
+      </c>
+      <c r="D48" s="31">
         <v>95.7</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="31">
         <v>26.28</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="31">
         <v>36.200000000000003</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="31" t="s">
         <v>100</v>
       </c>
       <c r="I48" s="29" t="s">
@@ -12357,25 +12357,25 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="32">
         <v>45050</v>
       </c>
-      <c r="C50" s="38">
-        <v>0</v>
-      </c>
-      <c r="D50" s="38">
+      <c r="C50" s="31">
+        <v>0</v>
+      </c>
+      <c r="D50" s="31">
         <v>96.6</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="31">
         <v>35.26</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="31">
         <v>133.34</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="31" t="s">
         <v>103</v>
       </c>
       <c r="I50" s="29" t="s">
@@ -12404,72 +12404,72 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="32">
         <v>45051</v>
       </c>
-      <c r="C51" s="38">
-        <v>0</v>
-      </c>
-      <c r="D51" s="38">
+      <c r="C51" s="31">
+        <v>0</v>
+      </c>
+      <c r="D51" s="31">
         <v>95.1</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="31">
         <v>99.54</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="31">
         <v>113.11</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="I51" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="J51" s="57" t="s">
+      <c r="J51" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="K51" s="39">
+      <c r="K51" s="32">
         <v>45044.666666666664</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="31">
         <v>291</v>
       </c>
-      <c r="M51" s="38">
-        <v>0</v>
-      </c>
-      <c r="N51" s="41">
+      <c r="M51" s="31">
+        <v>0</v>
+      </c>
+      <c r="N51" s="34">
         <v>96.825000000000003</v>
       </c>
-      <c r="O51" s="41">
+      <c r="O51" s="34">
         <v>56.017499999999998</v>
       </c>
-      <c r="P51" s="41">
+      <c r="P51" s="34">
         <v>47.98</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="39">
+      <c r="B52" s="32">
         <v>45051</v>
       </c>
-      <c r="C52" s="38">
-        <v>0</v>
-      </c>
-      <c r="D52" s="38">
+      <c r="C52" s="31">
+        <v>0</v>
+      </c>
+      <c r="D52" s="31">
         <v>96.2</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="31">
         <v>40.119999999999997</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="31">
         <v>93.39</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="31" t="s">
         <v>107</v>
       </c>
       <c r="I52" s="29" t="s">
@@ -12545,25 +12545,25 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="39">
+      <c r="B54" s="32">
         <v>45050</v>
       </c>
-      <c r="C54" s="38">
-        <v>0</v>
-      </c>
-      <c r="D54" s="38">
+      <c r="C54" s="31">
+        <v>0</v>
+      </c>
+      <c r="D54" s="31">
         <v>95.5</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="31">
         <v>72.78</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="31">
         <v>79.66</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="31" t="s">
         <v>116</v>
       </c>
       <c r="I54" s="29" t="s">
@@ -12686,25 +12686,25 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="39">
+      <c r="B57" s="32">
         <v>45046</v>
       </c>
-      <c r="C57" s="38">
-        <v>0</v>
-      </c>
-      <c r="D57" s="38">
+      <c r="C57" s="31">
+        <v>0</v>
+      </c>
+      <c r="D57" s="31">
         <v>96.7</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="31">
         <v>43.66</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="31">
         <v>79.88</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="31" t="s">
         <v>126</v>
       </c>
       <c r="I57" s="29" t="s">
@@ -12801,28 +12801,28 @@
       <c r="G59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I59" s="40" t="s">
+      <c r="I59" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="J59" s="38" t="s">
+      <c r="J59" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K59" s="39">
+      <c r="K59" s="32">
         <v>45046.541666666664</v>
       </c>
-      <c r="L59" s="38">
+      <c r="L59" s="31">
         <v>309</v>
       </c>
-      <c r="M59" s="38">
-        <v>0</v>
-      </c>
-      <c r="N59" s="41">
+      <c r="M59" s="31">
+        <v>0</v>
+      </c>
+      <c r="N59" s="34">
         <v>96.7</v>
       </c>
-      <c r="O59" s="41">
+      <c r="O59" s="34">
         <v>43.66</v>
       </c>
-      <c r="P59" s="41">
+      <c r="P59" s="34">
         <v>79.88</v>
       </c>
     </row>
@@ -12848,28 +12848,28 @@
       <c r="G60" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="40" t="s">
+      <c r="I60" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="J60" s="55" t="s">
+      <c r="J60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="K60" s="56">
+      <c r="K60" s="49">
         <v>45046.75</v>
       </c>
-      <c r="L60" s="38">
+      <c r="L60" s="31">
         <v>310</v>
       </c>
-      <c r="M60" s="38">
-        <v>0</v>
-      </c>
-      <c r="N60" s="41">
+      <c r="M60" s="31">
+        <v>0</v>
+      </c>
+      <c r="N60" s="34">
         <v>0.9</v>
       </c>
-      <c r="O60" s="41">
+      <c r="O60" s="34">
         <v>85.5</v>
       </c>
-      <c r="P60" s="41">
+      <c r="P60" s="34">
         <v>53.17</v>
       </c>
     </row>
@@ -13083,28 +13083,28 @@
       <c r="G65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I65" s="40" t="s">
+      <c r="I65" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="J65" s="38" t="s">
+      <c r="J65" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="K65" s="39">
+      <c r="K65" s="32">
         <v>45047.833333333336</v>
       </c>
-      <c r="L65" s="38">
+      <c r="L65" s="31">
         <v>328</v>
       </c>
-      <c r="M65" s="38">
-        <v>0</v>
-      </c>
-      <c r="N65" s="41">
+      <c r="M65" s="31">
+        <v>0</v>
+      </c>
+      <c r="N65" s="34">
         <v>95.6</v>
       </c>
-      <c r="O65" s="41">
+      <c r="O65" s="34">
         <v>64.14</v>
       </c>
-      <c r="P65" s="41">
+      <c r="P65" s="34">
         <v>87.02</v>
       </c>
     </row>
@@ -13156,25 +13156,25 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="49">
         <v>45040</v>
       </c>
-      <c r="C67" s="38">
-        <v>0</v>
-      </c>
-      <c r="D67" s="38">
+      <c r="C67" s="31">
+        <v>0</v>
+      </c>
+      <c r="D67" s="31">
         <v>96.2</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="31">
         <v>27.12</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="31">
         <v>48.05</v>
       </c>
-      <c r="G67" s="38" t="s">
+      <c r="G67" s="31" t="s">
         <v>146</v>
       </c>
       <c r="I67" s="29" t="s">
@@ -13203,25 +13203,25 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="49">
         <v>45036</v>
       </c>
-      <c r="C68" s="38">
-        <v>0</v>
-      </c>
-      <c r="D68" s="38">
+      <c r="C68" s="31">
+        <v>0</v>
+      </c>
+      <c r="D68" s="31">
         <v>97</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="31">
         <v>24.91</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="31">
         <v>58.21</v>
       </c>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="31" t="s">
         <v>147</v>
       </c>
       <c r="I68" s="29" t="s">
@@ -13250,25 +13250,25 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="49">
         <v>45035</v>
       </c>
-      <c r="C69" s="38">
-        <v>0</v>
-      </c>
-      <c r="D69" s="38">
+      <c r="C69" s="31">
+        <v>0</v>
+      </c>
+      <c r="D69" s="31">
         <v>96.9</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E69" s="31">
         <v>21.92</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="31">
         <v>38.29</v>
       </c>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="31" t="s">
         <v>148</v>
       </c>
       <c r="I69" s="29" t="s">
@@ -13297,25 +13297,25 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="49">
         <v>45035</v>
       </c>
-      <c r="C70" s="38">
-        <v>0</v>
-      </c>
-      <c r="D70" s="38">
+      <c r="C70" s="31">
+        <v>0</v>
+      </c>
+      <c r="D70" s="31">
         <v>96.7</v>
       </c>
-      <c r="E70" s="38">
+      <c r="E70" s="31">
         <v>22.8</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="31">
         <v>39.340000000000003</v>
       </c>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="31" t="s">
         <v>149</v>
       </c>
       <c r="I70" s="29" t="s">
@@ -13365,75 +13365,75 @@
       <c r="G71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I71" s="40" t="s">
+      <c r="I71" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="J71" s="38" t="s">
+      <c r="J71" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K71" s="39">
+      <c r="K71" s="32">
         <v>45049.583333333336</v>
       </c>
-      <c r="L71" s="38">
+      <c r="L71" s="31">
         <v>334</v>
       </c>
-      <c r="M71" s="38">
-        <v>0</v>
-      </c>
-      <c r="N71" s="41">
+      <c r="M71" s="31">
+        <v>0</v>
+      </c>
+      <c r="N71" s="34">
         <v>96.4</v>
       </c>
-      <c r="O71" s="41">
+      <c r="O71" s="34">
         <v>39.619999999999997</v>
       </c>
-      <c r="P71" s="41">
+      <c r="P71" s="34">
         <v>54.92</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="49">
         <v>45046</v>
       </c>
-      <c r="C72" s="38">
-        <v>0</v>
-      </c>
-      <c r="D72" s="38">
+      <c r="C72" s="31">
+        <v>0</v>
+      </c>
+      <c r="D72" s="31">
         <v>0.9</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="31">
         <v>85.5</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="31">
         <v>53.17</v>
       </c>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="I72" s="40" t="s">
+      <c r="I72" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="J72" s="38" t="s">
+      <c r="J72" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K72" s="39">
+      <c r="K72" s="32">
         <v>45049.833333333336</v>
       </c>
-      <c r="L72" s="38">
+      <c r="L72" s="31">
         <v>335</v>
       </c>
-      <c r="M72" s="38">
-        <v>0</v>
-      </c>
-      <c r="N72" s="41">
+      <c r="M72" s="31">
+        <v>0</v>
+      </c>
+      <c r="N72" s="34">
         <v>91.033333333333346</v>
       </c>
-      <c r="O72" s="41">
+      <c r="O72" s="34">
         <v>87.100000000000009</v>
       </c>
-      <c r="P72" s="41">
+      <c r="P72" s="34">
         <v>49.949999999999996</v>
       </c>
     </row>
@@ -13506,51 +13506,51 @@
       <c r="G74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I74" s="40" t="s">
+      <c r="I74" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="J74" s="38" t="s">
+      <c r="J74" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="K74" s="39">
+      <c r="K74" s="32">
         <v>45050.083333333336</v>
       </c>
-      <c r="L74" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M74" s="38">
-        <v>0</v>
-      </c>
-      <c r="N74" s="41">
+      <c r="L74" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M74" s="31">
+        <v>0</v>
+      </c>
+      <c r="N74" s="34">
         <v>95.7</v>
       </c>
-      <c r="O74" s="41">
+      <c r="O74" s="34">
         <v>26.28</v>
       </c>
-      <c r="P74" s="41">
+      <c r="P74" s="34">
         <v>36.200000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="56">
+      <c r="B75" s="49">
         <v>45040</v>
       </c>
-      <c r="C75" s="38">
-        <v>0</v>
-      </c>
-      <c r="D75" s="38">
+      <c r="C75" s="31">
+        <v>0</v>
+      </c>
+      <c r="D75" s="31">
         <v>97.1</v>
       </c>
-      <c r="E75" s="38">
+      <c r="E75" s="31">
         <v>13.73</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="31">
         <v>22.85</v>
       </c>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="31" t="s">
         <v>151</v>
       </c>
       <c r="I75" s="29" t="s">
@@ -13579,25 +13579,25 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="56">
+      <c r="B76" s="49">
         <v>45040</v>
       </c>
-      <c r="C76" s="38">
-        <v>0</v>
-      </c>
-      <c r="D76" s="38">
+      <c r="C76" s="31">
+        <v>0</v>
+      </c>
+      <c r="D76" s="31">
         <v>97</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="31">
         <v>15.45</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="31">
         <v>27.84</v>
       </c>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="31" t="s">
         <v>153</v>
       </c>
       <c r="I76" s="29" t="s">
@@ -13626,49 +13626,49 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="56">
+      <c r="B77" s="49">
         <v>45036</v>
       </c>
-      <c r="C77" s="38">
-        <v>0</v>
-      </c>
-      <c r="D77" s="38">
+      <c r="C77" s="31">
+        <v>0</v>
+      </c>
+      <c r="D77" s="31">
         <v>96.8</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="31">
         <v>30.83</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="31">
         <v>52.1</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="I77" s="40" t="s">
+      <c r="I77" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="J77" s="38" t="s">
+      <c r="J77" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="K77" s="39">
+      <c r="K77" s="32">
         <v>45050.458333333336</v>
       </c>
-      <c r="L77" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M77" s="38">
-        <v>0</v>
-      </c>
-      <c r="N77" s="41">
+      <c r="L77" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M77" s="31">
+        <v>0</v>
+      </c>
+      <c r="N77" s="34">
         <v>96.6</v>
       </c>
-      <c r="O77" s="41">
+      <c r="O77" s="34">
         <v>35.26</v>
       </c>
-      <c r="P77" s="41">
+      <c r="P77" s="34">
         <v>133.34</v>
       </c>
     </row>
@@ -13741,28 +13741,28 @@
       <c r="G79" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I79" s="40" t="s">
+      <c r="I79" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="J79" s="38" t="s">
+      <c r="J79" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="K79" s="39">
+      <c r="K79" s="32">
         <v>45050.708333333336</v>
       </c>
-      <c r="L79" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M79" s="38">
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
+      <c r="L79" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M79" s="31">
+        <v>0</v>
+      </c>
+      <c r="N79" s="34">
         <v>95.5</v>
       </c>
-      <c r="O79" s="41">
+      <c r="O79" s="34">
         <v>72.78</v>
       </c>
-      <c r="P79" s="41">
+      <c r="P79" s="34">
         <v>79.66</v>
       </c>
     </row>
@@ -13788,28 +13788,28 @@
       <c r="G80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I80" s="40" t="s">
+      <c r="I80" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="J80" s="38" t="s">
+      <c r="J80" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="K80" s="39">
+      <c r="K80" s="32">
         <v>45050.833333333336</v>
       </c>
-      <c r="L80" s="38">
+      <c r="L80" s="31">
         <v>338</v>
       </c>
-      <c r="M80" s="38">
-        <v>0</v>
-      </c>
-      <c r="N80" s="41">
+      <c r="M80" s="31">
+        <v>0</v>
+      </c>
+      <c r="N80" s="34">
         <v>96.2</v>
       </c>
-      <c r="O80" s="41">
+      <c r="O80" s="34">
         <v>25.16</v>
       </c>
-      <c r="P80" s="41">
+      <c r="P80" s="34">
         <v>30.57</v>
       </c>
     </row>
@@ -13835,28 +13835,28 @@
       <c r="G81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I81" s="40" t="s">
+      <c r="I81" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="J81" s="38" t="s">
+      <c r="J81" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K81" s="39">
+      <c r="K81" s="32">
         <v>45050.958333333336</v>
       </c>
-      <c r="L81" s="38">
+      <c r="L81" s="31">
         <v>339</v>
       </c>
-      <c r="M81" s="38">
-        <v>0</v>
-      </c>
-      <c r="N81" s="41">
+      <c r="M81" s="31">
+        <v>0</v>
+      </c>
+      <c r="N81" s="34">
         <v>97.066666666666663</v>
       </c>
-      <c r="O81" s="41">
+      <c r="O81" s="34">
         <v>15.186666666666667</v>
       </c>
-      <c r="P81" s="41">
+      <c r="P81" s="34">
         <v>26.823333333333334</v>
       </c>
     </row>
@@ -13882,28 +13882,28 @@
       <c r="G82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I82" s="40" t="s">
+      <c r="I82" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="J82" s="38" t="s">
+      <c r="J82" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="K82" s="39">
+      <c r="K82" s="32">
         <v>45051.083333333336</v>
       </c>
-      <c r="L82" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M82" s="38">
-        <v>0</v>
-      </c>
-      <c r="N82" s="41">
+      <c r="L82" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M82" s="31">
+        <v>0</v>
+      </c>
+      <c r="N82" s="34">
         <v>95.1</v>
       </c>
-      <c r="O82" s="41">
+      <c r="O82" s="34">
         <v>99.54</v>
       </c>
-      <c r="P82" s="41">
+      <c r="P82" s="34">
         <v>113.11</v>
       </c>
     </row>
@@ -13976,28 +13976,28 @@
       <c r="G84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I84" s="40" t="s">
+      <c r="I84" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="J84" s="38" t="s">
+      <c r="J84" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="K84" s="39">
+      <c r="K84" s="32">
         <v>45051.333333333336</v>
       </c>
-      <c r="L84" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M84" s="38">
-        <v>0</v>
-      </c>
-      <c r="N84" s="41">
+      <c r="L84" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M84" s="31">
+        <v>0</v>
+      </c>
+      <c r="N84" s="34">
         <v>96.2</v>
       </c>
-      <c r="O84" s="41">
+      <c r="O84" s="34">
         <v>40.119999999999997</v>
       </c>
-      <c r="P84" s="41">
+      <c r="P84" s="34">
         <v>93.39</v>
       </c>
     </row>
@@ -14023,28 +14023,28 @@
       <c r="G85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I85" s="40" t="s">
+      <c r="I85" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="J85" s="38" t="s">
+      <c r="J85" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="K85" s="39">
+      <c r="K85" s="32">
         <v>45051.458333333336</v>
       </c>
-      <c r="L85" s="38">
+      <c r="L85" s="31">
         <v>341</v>
       </c>
-      <c r="M85" s="38">
-        <v>0</v>
-      </c>
-      <c r="N85" s="41">
+      <c r="M85" s="31">
+        <v>0</v>
+      </c>
+      <c r="N85" s="34">
         <v>96.833333333333329</v>
       </c>
-      <c r="O85" s="41">
+      <c r="O85" s="34">
         <v>25.61</v>
       </c>
-      <c r="P85" s="41">
+      <c r="P85" s="34">
         <v>44.193333333333328</v>
       </c>
     </row>
@@ -14117,28 +14117,28 @@
       <c r="G87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="I87" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="J87" s="38" t="s">
+      <c r="J87" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="K87" s="39">
+      <c r="K87" s="32">
         <v>45051.708333333336</v>
       </c>
-      <c r="L87" s="38">
+      <c r="L87" s="31">
         <v>342</v>
       </c>
-      <c r="M87" s="38">
-        <v>0</v>
-      </c>
-      <c r="N87" s="41">
+      <c r="M87" s="31">
+        <v>0</v>
+      </c>
+      <c r="N87" s="34">
         <v>96.6</v>
       </c>
-      <c r="O87" s="41">
+      <c r="O87" s="34">
         <v>30.814999999999998</v>
       </c>
-      <c r="P87" s="41">
+      <c r="P87" s="34">
         <v>50.42</v>
       </c>
     </row>
@@ -14287,97 +14287,97 @@
       <c r="I93" s="29"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="57" t="s">
+      <c r="A94" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B94" s="39">
+      <c r="B94" s="32">
         <v>45044</v>
       </c>
-      <c r="C94" s="38">
-        <v>0</v>
-      </c>
-      <c r="D94" s="38">
+      <c r="C94" s="31">
+        <v>0</v>
+      </c>
+      <c r="D94" s="31">
         <v>96.9</v>
       </c>
-      <c r="E94" s="38">
+      <c r="E94" s="31">
         <v>65.569999999999993</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="31">
         <v>62.26</v>
       </c>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="31" t="s">
         <v>157</v>
       </c>
       <c r="I94" s="29"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B95" s="39">
+      <c r="B95" s="32">
         <v>45044</v>
       </c>
-      <c r="C95" s="38">
-        <v>0</v>
-      </c>
-      <c r="D95" s="38">
+      <c r="C95" s="31">
+        <v>0</v>
+      </c>
+      <c r="D95" s="31">
         <v>98</v>
       </c>
-      <c r="E95" s="38">
-        <v>0</v>
-      </c>
-      <c r="F95" s="38">
-        <v>0</v>
-      </c>
-      <c r="G95" s="38" t="s">
+      <c r="E95" s="31">
+        <v>0</v>
+      </c>
+      <c r="F95" s="31">
+        <v>0</v>
+      </c>
+      <c r="G95" s="31" t="s">
         <v>0</v>
       </c>
       <c r="I95" s="29"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B96" s="39">
+      <c r="B96" s="32">
         <v>45044</v>
       </c>
-      <c r="C96" s="38">
-        <v>0</v>
-      </c>
-      <c r="D96" s="38">
+      <c r="C96" s="31">
+        <v>0</v>
+      </c>
+      <c r="D96" s="31">
         <v>96.4</v>
       </c>
-      <c r="E96" s="38">
+      <c r="E96" s="31">
         <v>74.290000000000006</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="31">
         <v>64.09</v>
       </c>
-      <c r="G96" s="38" t="s">
+      <c r="G96" s="31" t="s">
         <v>158</v>
       </c>
       <c r="I96" s="29"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="57" t="s">
+      <c r="A97" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="39">
+      <c r="B97" s="32">
         <v>45044</v>
       </c>
-      <c r="C97" s="38">
-        <v>0</v>
-      </c>
-      <c r="D97" s="38">
+      <c r="C97" s="31">
+        <v>0</v>
+      </c>
+      <c r="D97" s="31">
         <v>96</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E97" s="31">
         <v>84.21</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="31">
         <v>65.569999999999993</v>
       </c>
-      <c r="G97" s="38" t="s">
+      <c r="G97" s="31" t="s">
         <v>160</v>
       </c>
       <c r="I97" s="29"/>
@@ -14431,193 +14431,193 @@
       <c r="I99" s="29"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="39">
+      <c r="B100" s="32">
         <v>45033</v>
       </c>
-      <c r="C100" s="38">
-        <v>0</v>
-      </c>
-      <c r="D100" s="38">
+      <c r="C100" s="31">
+        <v>0</v>
+      </c>
+      <c r="D100" s="31">
         <v>97.2</v>
       </c>
-      <c r="E100" s="38">
+      <c r="E100" s="31">
         <v>83.26</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="31">
         <v>101.8</v>
       </c>
-      <c r="G100" s="38" t="s">
+      <c r="G100" s="31" t="s">
         <v>162</v>
       </c>
       <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B101" s="39">
+      <c r="B101" s="32">
         <v>45033</v>
       </c>
-      <c r="C101" s="38">
-        <v>0</v>
-      </c>
-      <c r="D101" s="38">
+      <c r="C101" s="31">
+        <v>0</v>
+      </c>
+      <c r="D101" s="31">
         <v>97.1</v>
       </c>
-      <c r="E101" s="38">
+      <c r="E101" s="31">
         <v>72.62</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="31">
         <v>103.71</v>
       </c>
-      <c r="G101" s="38" t="s">
+      <c r="G101" s="31" t="s">
         <v>163</v>
       </c>
       <c r="I101" s="29"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="39">
+      <c r="B102" s="32">
         <v>45033</v>
       </c>
-      <c r="C102" s="38">
-        <v>0</v>
-      </c>
-      <c r="D102" s="38">
+      <c r="C102" s="31">
+        <v>0</v>
+      </c>
+      <c r="D102" s="31">
         <v>97.1</v>
       </c>
-      <c r="E102" s="38">
+      <c r="E102" s="31">
         <v>67.23</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="31">
         <v>80.28</v>
       </c>
-      <c r="G102" s="38" t="s">
+      <c r="G102" s="31" t="s">
         <v>164</v>
       </c>
       <c r="I102" s="29"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="43">
+      <c r="B103" s="36">
         <v>45033</v>
       </c>
-      <c r="C103" s="38">
-        <v>0</v>
-      </c>
-      <c r="D103" s="38">
+      <c r="C103" s="31">
+        <v>0</v>
+      </c>
+      <c r="D103" s="31">
         <v>96.8</v>
       </c>
-      <c r="E103" s="38">
+      <c r="E103" s="31">
         <v>71.59</v>
       </c>
-      <c r="F103" s="38">
+      <c r="F103" s="31">
         <v>80.05</v>
       </c>
-      <c r="G103" s="38" t="s">
+      <c r="G103" s="31" t="s">
         <v>166</v>
       </c>
       <c r="I103" s="29"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="43">
+      <c r="B104" s="36">
         <v>45034</v>
       </c>
-      <c r="C104" s="38">
-        <v>0</v>
-      </c>
-      <c r="D104" s="38">
+      <c r="C104" s="31">
+        <v>0</v>
+      </c>
+      <c r="D104" s="31">
         <v>96.9</v>
       </c>
-      <c r="E104" s="38">
+      <c r="E104" s="31">
         <v>49.12</v>
       </c>
-      <c r="F104" s="38">
+      <c r="F104" s="31">
         <v>61.74</v>
       </c>
-      <c r="G104" s="38" t="s">
+      <c r="G104" s="31" t="s">
         <v>167</v>
       </c>
       <c r="I104" s="29"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="43">
+      <c r="B105" s="36">
         <v>45034</v>
       </c>
-      <c r="C105" s="38">
-        <v>0</v>
-      </c>
-      <c r="D105" s="38">
+      <c r="C105" s="31">
+        <v>0</v>
+      </c>
+      <c r="D105" s="31">
         <v>97</v>
       </c>
-      <c r="E105" s="38">
+      <c r="E105" s="31">
         <v>40.53</v>
       </c>
-      <c r="F105" s="38">
+      <c r="F105" s="31">
         <v>50.79</v>
       </c>
-      <c r="G105" s="38" t="s">
+      <c r="G105" s="31" t="s">
         <v>169</v>
       </c>
       <c r="I105" s="29"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B106" s="43">
+      <c r="B106" s="36">
         <v>45034</v>
       </c>
-      <c r="C106" s="38">
-        <v>0</v>
-      </c>
-      <c r="D106" s="38">
+      <c r="C106" s="31">
+        <v>0</v>
+      </c>
+      <c r="D106" s="31">
         <v>96.9</v>
       </c>
-      <c r="E106" s="38">
+      <c r="E106" s="31">
         <v>50.66</v>
       </c>
-      <c r="F106" s="38">
+      <c r="F106" s="31">
         <v>60.92</v>
       </c>
-      <c r="G106" s="38" t="s">
+      <c r="G106" s="31" t="s">
         <v>171</v>
       </c>
       <c r="I106" s="29"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="43">
+      <c r="B107" s="36">
         <v>45034</v>
       </c>
-      <c r="C107" s="38">
-        <v>0</v>
-      </c>
-      <c r="D107" s="38">
+      <c r="C107" s="31">
+        <v>0</v>
+      </c>
+      <c r="D107" s="31">
         <v>96.8</v>
       </c>
-      <c r="E107" s="38">
+      <c r="E107" s="31">
         <v>55.27</v>
       </c>
-      <c r="F107" s="38">
+      <c r="F107" s="31">
         <v>61.39</v>
       </c>
-      <c r="G107" s="38" t="s">
+      <c r="G107" s="31" t="s">
         <v>173</v>
       </c>
       <c r="I107" s="29"/>
@@ -14647,49 +14647,49 @@
       <c r="I108" s="29"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="43">
+      <c r="B109" s="36">
         <v>45033</v>
       </c>
-      <c r="C109" s="38">
-        <v>0</v>
-      </c>
-      <c r="D109" s="38">
+      <c r="C109" s="31">
+        <v>0</v>
+      </c>
+      <c r="D109" s="31">
         <v>93.6</v>
       </c>
-      <c r="E109" s="38">
+      <c r="E109" s="31">
         <v>103.03</v>
       </c>
-      <c r="F109" s="38">
+      <c r="F109" s="31">
         <v>71.760000000000005</v>
       </c>
-      <c r="G109" s="38" t="s">
+      <c r="G109" s="31" t="s">
         <v>188</v>
       </c>
       <c r="I109" s="29"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B110" s="43">
+      <c r="B110" s="36">
         <v>45033</v>
       </c>
-      <c r="C110" s="38">
-        <v>0</v>
-      </c>
-      <c r="D110" s="38">
+      <c r="C110" s="31">
+        <v>0</v>
+      </c>
+      <c r="D110" s="31">
         <v>93.2</v>
       </c>
-      <c r="E110" s="38">
+      <c r="E110" s="31">
         <v>103.58</v>
       </c>
-      <c r="F110" s="38">
+      <c r="F110" s="31">
         <v>91.84</v>
       </c>
-      <c r="G110" s="38" t="s">
+      <c r="G110" s="31" t="s">
         <v>189</v>
       </c>
       <c r="I110" s="29"/>
@@ -14767,145 +14767,145 @@
       <c r="I113" s="29"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B114" s="43">
+      <c r="B114" s="36">
         <v>45040</v>
       </c>
-      <c r="C114" s="38">
-        <v>0</v>
-      </c>
-      <c r="D114" s="38">
+      <c r="C114" s="31">
+        <v>0</v>
+      </c>
+      <c r="D114" s="31">
         <v>97.3</v>
       </c>
-      <c r="E114" s="38">
+      <c r="E114" s="31">
         <v>70.010000000000005</v>
       </c>
-      <c r="F114" s="38">
+      <c r="F114" s="31">
         <v>73.97</v>
       </c>
-      <c r="G114" s="38" t="s">
+      <c r="G114" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I114" s="29"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="43">
+      <c r="B115" s="36">
         <v>45040</v>
       </c>
-      <c r="C115" s="38">
-        <v>0</v>
-      </c>
-      <c r="D115" s="38">
+      <c r="C115" s="31">
+        <v>0</v>
+      </c>
+      <c r="D115" s="31">
         <v>97.3</v>
       </c>
-      <c r="E115" s="38">
+      <c r="E115" s="31">
         <v>67.09</v>
       </c>
-      <c r="F115" s="38">
+      <c r="F115" s="31">
         <v>70.069999999999993</v>
       </c>
-      <c r="G115" s="38" t="s">
+      <c r="G115" s="31" t="s">
         <v>205</v>
       </c>
       <c r="I115" s="29"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="43">
+      <c r="B116" s="36">
         <v>45040</v>
       </c>
-      <c r="C116" s="38">
-        <v>0</v>
-      </c>
-      <c r="D116" s="38">
+      <c r="C116" s="31">
+        <v>0</v>
+      </c>
+      <c r="D116" s="31">
         <v>97.3</v>
       </c>
-      <c r="E116" s="38">
+      <c r="E116" s="31">
         <v>62.66</v>
       </c>
-      <c r="F116" s="38">
+      <c r="F116" s="31">
         <v>65.38</v>
       </c>
-      <c r="G116" s="38" t="s">
+      <c r="G116" s="31" t="s">
         <v>207</v>
       </c>
       <c r="I116" s="29"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="38" t="s">
+      <c r="A117" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B117" s="43">
+      <c r="B117" s="36">
         <v>45035</v>
       </c>
-      <c r="C117" s="38">
-        <v>0</v>
-      </c>
-      <c r="D117" s="38">
+      <c r="C117" s="31">
+        <v>0</v>
+      </c>
+      <c r="D117" s="31">
         <v>97.3</v>
       </c>
-      <c r="E117" s="38">
+      <c r="E117" s="31">
         <v>38.99</v>
       </c>
-      <c r="F117" s="38">
+      <c r="F117" s="31">
         <v>64.36</v>
       </c>
-      <c r="G117" s="38" t="s">
+      <c r="G117" s="31" t="s">
         <v>208</v>
       </c>
       <c r="I117" s="29"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="38" t="s">
+      <c r="A118" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="B118" s="43">
+      <c r="B118" s="36">
         <v>45035</v>
       </c>
-      <c r="C118" s="38">
-        <v>0</v>
-      </c>
-      <c r="D118" s="38">
+      <c r="C118" s="31">
+        <v>0</v>
+      </c>
+      <c r="D118" s="31">
         <v>97</v>
       </c>
-      <c r="E118" s="38">
+      <c r="E118" s="31">
         <v>40.549999999999997</v>
       </c>
-      <c r="F118" s="38">
+      <c r="F118" s="31">
         <v>59.68</v>
       </c>
-      <c r="G118" s="38" t="s">
+      <c r="G118" s="31" t="s">
         <v>210</v>
       </c>
       <c r="I118" s="29"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="38" t="s">
+      <c r="A119" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B119" s="43">
+      <c r="B119" s="36">
         <v>45035</v>
       </c>
-      <c r="C119" s="38">
-        <v>0</v>
-      </c>
-      <c r="D119" s="38">
+      <c r="C119" s="31">
+        <v>0</v>
+      </c>
+      <c r="D119" s="31">
         <v>96.9</v>
       </c>
-      <c r="E119" s="38">
+      <c r="E119" s="31">
         <v>43.34</v>
       </c>
-      <c r="F119" s="38">
+      <c r="F119" s="31">
         <v>64.510000000000005</v>
       </c>
-      <c r="G119" s="38" t="s">
+      <c r="G119" s="31" t="s">
         <v>212</v>
       </c>
       <c r="I119" s="29"/>
@@ -14935,121 +14935,121 @@
       <c r="I120" s="29"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="43">
+      <c r="B121" s="36">
         <v>45035</v>
       </c>
-      <c r="C121" s="38">
-        <v>0</v>
-      </c>
-      <c r="D121" s="38">
+      <c r="C121" s="31">
+        <v>0</v>
+      </c>
+      <c r="D121" s="31">
         <v>96.9</v>
       </c>
-      <c r="E121" s="38">
+      <c r="E121" s="31">
         <v>40.33</v>
       </c>
-      <c r="F121" s="38">
+      <c r="F121" s="31">
         <v>53.86</v>
       </c>
-      <c r="G121" s="38" t="s">
+      <c r="G121" s="31" t="s">
         <v>214</v>
       </c>
       <c r="I121" s="29"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="38" t="s">
+      <c r="A122" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B122" s="43">
+      <c r="B122" s="36">
         <v>45035</v>
       </c>
-      <c r="C122" s="38">
-        <v>0</v>
-      </c>
-      <c r="D122" s="38">
+      <c r="C122" s="31">
+        <v>0</v>
+      </c>
+      <c r="D122" s="31">
         <v>96.6</v>
       </c>
-      <c r="E122" s="38">
+      <c r="E122" s="31">
         <v>49.87</v>
       </c>
-      <c r="F122" s="38">
+      <c r="F122" s="31">
         <v>58.37</v>
       </c>
-      <c r="G122" s="38" t="s">
+      <c r="G122" s="31" t="s">
         <v>215</v>
       </c>
       <c r="I122" s="29"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="38" t="s">
+      <c r="A123" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B123" s="43">
+      <c r="B123" s="36">
         <v>45035</v>
       </c>
-      <c r="C123" s="38">
-        <v>0</v>
-      </c>
-      <c r="D123" s="38">
+      <c r="C123" s="31">
+        <v>0</v>
+      </c>
+      <c r="D123" s="31">
         <v>96.4</v>
       </c>
-      <c r="E123" s="38">
+      <c r="E123" s="31">
         <v>52.54</v>
       </c>
-      <c r="F123" s="38">
+      <c r="F123" s="31">
         <v>59.24</v>
       </c>
-      <c r="G123" s="38" t="s">
+      <c r="G123" s="31" t="s">
         <v>216</v>
       </c>
       <c r="I123" s="29"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B124" s="43">
+      <c r="B124" s="36">
         <v>45034</v>
       </c>
-      <c r="C124" s="38">
-        <v>0</v>
-      </c>
-      <c r="D124" s="38">
+      <c r="C124" s="31">
+        <v>0</v>
+      </c>
+      <c r="D124" s="31">
         <v>93.1</v>
       </c>
-      <c r="E124" s="38">
+      <c r="E124" s="31">
         <v>76.42</v>
       </c>
-      <c r="F124" s="38">
+      <c r="F124" s="31">
         <v>45.55</v>
       </c>
-      <c r="G124" s="38" t="s">
+      <c r="G124" s="31" t="s">
         <v>217</v>
       </c>
       <c r="I124" s="29"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B125" s="43">
+      <c r="B125" s="36">
         <v>45034</v>
       </c>
-      <c r="C125" s="38">
-        <v>0</v>
-      </c>
-      <c r="D125" s="38">
+      <c r="C125" s="31">
+        <v>0</v>
+      </c>
+      <c r="D125" s="31">
         <v>92.8</v>
       </c>
-      <c r="E125" s="38">
+      <c r="E125" s="31">
         <v>110.53</v>
       </c>
-      <c r="F125" s="38">
+      <c r="F125" s="31">
         <v>66.5</v>
       </c>
-      <c r="G125" s="38" t="s">
+      <c r="G125" s="31" t="s">
         <v>218</v>
       </c>
       <c r="I125" s="29"/>
@@ -15079,97 +15079,97 @@
       <c r="I126" s="29"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="48" t="s">
+      <c r="A127" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="49">
+      <c r="B127" s="42">
         <v>45038</v>
       </c>
-      <c r="C127" s="38">
-        <v>0</v>
-      </c>
-      <c r="D127" s="38">
+      <c r="C127" s="31">
+        <v>0</v>
+      </c>
+      <c r="D127" s="31">
         <v>96.9</v>
       </c>
-      <c r="E127" s="38">
+      <c r="E127" s="31">
         <v>50.28</v>
       </c>
-      <c r="F127" s="38">
+      <c r="F127" s="31">
         <v>77.33</v>
       </c>
-      <c r="G127" s="38" t="s">
+      <c r="G127" s="31" t="s">
         <v>251</v>
       </c>
       <c r="I127" s="29"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="48" t="s">
+      <c r="A128" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="B128" s="49">
+      <c r="B128" s="42">
         <v>45038</v>
       </c>
-      <c r="C128" s="38">
-        <v>0</v>
-      </c>
-      <c r="D128" s="38">
+      <c r="C128" s="31">
+        <v>0</v>
+      </c>
+      <c r="D128" s="31">
         <v>97</v>
       </c>
-      <c r="E128" s="38">
+      <c r="E128" s="31">
         <v>51.14</v>
       </c>
-      <c r="F128" s="38">
+      <c r="F128" s="31">
         <v>80.84</v>
       </c>
-      <c r="G128" s="38" t="s">
+      <c r="G128" s="31" t="s">
         <v>253</v>
       </c>
       <c r="I128" s="29"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="48" t="s">
+      <c r="A129" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="B129" s="49">
+      <c r="B129" s="42">
         <v>45038</v>
       </c>
-      <c r="C129" s="38">
-        <v>0</v>
-      </c>
-      <c r="D129" s="38">
+      <c r="C129" s="31">
+        <v>0</v>
+      </c>
+      <c r="D129" s="31">
         <v>97</v>
       </c>
-      <c r="E129" s="38">
+      <c r="E129" s="31">
         <v>52.12</v>
       </c>
-      <c r="F129" s="38">
+      <c r="F129" s="31">
         <v>81.61</v>
       </c>
-      <c r="G129" s="38" t="s">
+      <c r="G129" s="31" t="s">
         <v>255</v>
       </c>
       <c r="I129" s="29"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B130" s="49">
+      <c r="B130" s="42">
         <v>45038</v>
       </c>
-      <c r="C130" s="38">
-        <v>0</v>
-      </c>
-      <c r="D130" s="38">
+      <c r="C130" s="31">
+        <v>0</v>
+      </c>
+      <c r="D130" s="31">
         <v>97</v>
       </c>
-      <c r="E130" s="38">
+      <c r="E130" s="31">
         <v>53.19</v>
       </c>
-      <c r="F130" s="38">
+      <c r="F130" s="31">
         <v>83.9</v>
       </c>
-      <c r="G130" s="38" t="s">
+      <c r="G130" s="31" t="s">
         <v>257</v>
       </c>
       <c r="I130" s="29"/>
@@ -15199,97 +15199,97 @@
       <c r="I131" s="29"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="48" t="s">
+      <c r="A132" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="49">
+      <c r="B132" s="42">
         <v>45039</v>
       </c>
-      <c r="C132" s="38">
-        <v>0</v>
-      </c>
-      <c r="D132" s="38">
+      <c r="C132" s="31">
+        <v>0</v>
+      </c>
+      <c r="D132" s="31">
         <v>95.4</v>
       </c>
-      <c r="E132" s="38">
+      <c r="E132" s="31">
         <v>65.36</v>
       </c>
-      <c r="F132" s="38">
+      <c r="F132" s="31">
         <v>59.88</v>
       </c>
-      <c r="G132" s="38" t="s">
+      <c r="G132" s="31" t="s">
         <v>258</v>
       </c>
       <c r="I132" s="29"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="48" t="s">
+      <c r="A133" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="B133" s="49">
+      <c r="B133" s="42">
         <v>45039</v>
       </c>
-      <c r="C133" s="38">
-        <v>0</v>
-      </c>
-      <c r="D133" s="38">
+      <c r="C133" s="31">
+        <v>0</v>
+      </c>
+      <c r="D133" s="31">
         <v>95.4</v>
       </c>
-      <c r="E133" s="38">
+      <c r="E133" s="31">
         <v>67.44</v>
       </c>
-      <c r="F133" s="38">
+      <c r="F133" s="31">
         <v>61.6</v>
       </c>
-      <c r="G133" s="38" t="s">
+      <c r="G133" s="31" t="s">
         <v>260</v>
       </c>
       <c r="I133" s="29"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="48" t="s">
+      <c r="A134" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="B134" s="49">
+      <c r="B134" s="42">
         <v>45039</v>
       </c>
-      <c r="C134" s="38">
-        <v>0</v>
-      </c>
-      <c r="D134" s="38">
+      <c r="C134" s="31">
+        <v>0</v>
+      </c>
+      <c r="D134" s="31">
         <v>95.4</v>
       </c>
-      <c r="E134" s="38">
+      <c r="E134" s="31">
         <v>59.92</v>
       </c>
-      <c r="F134" s="38">
+      <c r="F134" s="31">
         <v>57.37</v>
       </c>
-      <c r="G134" s="38" t="s">
+      <c r="G134" s="31" t="s">
         <v>262</v>
       </c>
       <c r="I134" s="29"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="48" t="s">
+      <c r="A135" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="B135" s="49">
+      <c r="B135" s="42">
         <v>45039</v>
       </c>
-      <c r="C135" s="38">
-        <v>0</v>
-      </c>
-      <c r="D135" s="38">
+      <c r="C135" s="31">
+        <v>0</v>
+      </c>
+      <c r="D135" s="31">
         <v>95.3</v>
       </c>
-      <c r="E135" s="38">
+      <c r="E135" s="31">
         <v>61.42</v>
       </c>
-      <c r="F135" s="38">
+      <c r="F135" s="31">
         <v>57.97</v>
       </c>
-      <c r="G135" s="38" t="s">
+      <c r="G135" s="31" t="s">
         <v>264</v>
       </c>
       <c r="I135" s="29"/>
@@ -15367,265 +15367,265 @@
       <c r="I138" s="29"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="50" t="s">
+      <c r="A139" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B139" s="51">
+      <c r="B139" s="44">
         <v>45034</v>
       </c>
-      <c r="C139" s="38">
-        <v>0</v>
-      </c>
-      <c r="D139" s="38">
+      <c r="C139" s="31">
+        <v>0</v>
+      </c>
+      <c r="D139" s="31">
         <v>95.6</v>
       </c>
-      <c r="E139" s="38">
+      <c r="E139" s="31">
         <v>49.93</v>
       </c>
-      <c r="F139" s="38">
+      <c r="F139" s="31">
         <v>64.2</v>
       </c>
-      <c r="G139" s="38" t="s">
+      <c r="G139" s="31" t="s">
         <v>266</v>
       </c>
       <c r="I139" s="29"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="38" t="s">
+      <c r="A140" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B140" s="51">
+      <c r="B140" s="44">
         <v>45034</v>
       </c>
-      <c r="C140" s="38">
-        <v>0</v>
-      </c>
-      <c r="D140" s="38">
+      <c r="C140" s="31">
+        <v>0</v>
+      </c>
+      <c r="D140" s="31">
         <v>95.5</v>
       </c>
-      <c r="E140" s="38">
+      <c r="E140" s="31">
         <v>52.93</v>
       </c>
-      <c r="F140" s="38">
+      <c r="F140" s="31">
         <v>65.03</v>
       </c>
-      <c r="G140" s="38" t="s">
+      <c r="G140" s="31" t="s">
         <v>268</v>
       </c>
       <c r="I140" s="29"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="38" t="s">
+      <c r="A141" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="B141" s="45">
+      <c r="B141" s="38">
         <v>45034</v>
       </c>
-      <c r="C141" s="38">
-        <v>0</v>
-      </c>
-      <c r="D141" s="38">
+      <c r="C141" s="31">
+        <v>0</v>
+      </c>
+      <c r="D141" s="31">
         <v>95.6</v>
       </c>
-      <c r="E141" s="38">
+      <c r="E141" s="31">
         <v>55.66</v>
       </c>
-      <c r="F141" s="38">
+      <c r="F141" s="31">
         <v>66.680000000000007</v>
       </c>
-      <c r="G141" s="38" t="s">
+      <c r="G141" s="31" t="s">
         <v>270</v>
       </c>
       <c r="I141" s="29"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="52" t="s">
+      <c r="A142" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B142" s="53">
+      <c r="B142" s="46">
         <v>45034</v>
       </c>
-      <c r="C142" s="38">
-        <v>0</v>
-      </c>
-      <c r="D142" s="38">
+      <c r="C142" s="31">
+        <v>0</v>
+      </c>
+      <c r="D142" s="31">
         <v>95.5</v>
       </c>
-      <c r="E142" s="38">
+      <c r="E142" s="31">
         <v>56.62</v>
       </c>
-      <c r="F142" s="38">
+      <c r="F142" s="31">
         <v>68.64</v>
       </c>
-      <c r="G142" s="38" t="s">
+      <c r="G142" s="31" t="s">
         <v>272</v>
       </c>
       <c r="I142" s="29"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="52" t="s">
+      <c r="A143" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B143" s="53">
+      <c r="B143" s="46">
         <v>45033</v>
       </c>
-      <c r="C143" s="38">
-        <v>0</v>
-      </c>
-      <c r="D143" s="38">
+      <c r="C143" s="31">
+        <v>0</v>
+      </c>
+      <c r="D143" s="31">
         <v>94.4</v>
       </c>
-      <c r="E143" s="38">
+      <c r="E143" s="31">
         <v>65.48</v>
       </c>
-      <c r="F143" s="38">
+      <c r="F143" s="31">
         <v>51.72</v>
       </c>
-      <c r="G143" s="38" t="s">
+      <c r="G143" s="31" t="s">
         <v>273</v>
       </c>
       <c r="I143" s="29"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="52" t="s">
+      <c r="A144" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="B144" s="53">
+      <c r="B144" s="46">
         <v>45033</v>
       </c>
-      <c r="C144" s="38">
-        <v>0</v>
-      </c>
-      <c r="D144" s="38">
+      <c r="C144" s="31">
+        <v>0</v>
+      </c>
+      <c r="D144" s="31">
         <v>94</v>
       </c>
-      <c r="E144" s="38">
+      <c r="E144" s="31">
         <v>75.86</v>
       </c>
-      <c r="F144" s="38">
+      <c r="F144" s="31">
         <v>57.19</v>
       </c>
-      <c r="G144" s="38" t="s">
+      <c r="G144" s="31" t="s">
         <v>275</v>
       </c>
       <c r="I144" s="29"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="52" t="s">
+      <c r="A145" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="B145" s="53">
+      <c r="B145" s="46">
         <v>45033</v>
       </c>
-      <c r="C145" s="38">
-        <v>0</v>
-      </c>
-      <c r="D145" s="38">
+      <c r="C145" s="31">
+        <v>0</v>
+      </c>
+      <c r="D145" s="31">
         <v>94.2</v>
       </c>
-      <c r="E145" s="38">
+      <c r="E145" s="31">
         <v>94.2</v>
       </c>
-      <c r="F145" s="38">
+      <c r="F145" s="31">
         <v>68.83</v>
       </c>
-      <c r="G145" s="38" t="s">
+      <c r="G145" s="31" t="s">
         <v>277</v>
       </c>
       <c r="I145" s="29"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="B146" s="53">
+      <c r="B146" s="46">
         <v>45033</v>
       </c>
-      <c r="C146" s="38">
-        <v>0</v>
-      </c>
-      <c r="D146" s="38">
+      <c r="C146" s="31">
+        <v>0</v>
+      </c>
+      <c r="D146" s="31">
         <v>93.9</v>
       </c>
-      <c r="E146" s="38">
+      <c r="E146" s="31">
         <v>82.58</v>
       </c>
-      <c r="F146" s="38">
+      <c r="F146" s="31">
         <v>58.91</v>
       </c>
-      <c r="G146" s="38" t="s">
+      <c r="G146" s="31" t="s">
         <v>279</v>
       </c>
       <c r="I146" s="29"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="52" t="s">
+      <c r="A147" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="53">
+      <c r="B147" s="46">
         <v>45040</v>
       </c>
-      <c r="C147" s="38">
-        <v>0</v>
-      </c>
-      <c r="D147" s="38">
+      <c r="C147" s="31">
+        <v>0</v>
+      </c>
+      <c r="D147" s="31">
         <v>96.6</v>
       </c>
-      <c r="E147" s="38">
+      <c r="E147" s="31">
         <v>42.51</v>
       </c>
-      <c r="F147" s="38">
+      <c r="F147" s="31">
         <v>55.18</v>
       </c>
-      <c r="G147" s="38" t="s">
+      <c r="G147" s="31" t="s">
         <v>280</v>
       </c>
       <c r="I147" s="29"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="B148" s="53">
+      <c r="B148" s="46">
         <v>45040</v>
       </c>
-      <c r="C148" s="38">
-        <v>0</v>
-      </c>
-      <c r="D148" s="38">
+      <c r="C148" s="31">
+        <v>0</v>
+      </c>
+      <c r="D148" s="31">
         <v>96.5</v>
       </c>
-      <c r="E148" s="38">
+      <c r="E148" s="31">
         <v>49.12</v>
       </c>
-      <c r="F148" s="38">
+      <c r="F148" s="31">
         <v>61.13</v>
       </c>
-      <c r="G148" s="38" t="s">
+      <c r="G148" s="31" t="s">
         <v>282</v>
       </c>
       <c r="I148" s="29"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="52" t="s">
+      <c r="A149" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="B149" s="53">
+      <c r="B149" s="46">
         <v>45040</v>
       </c>
-      <c r="C149" s="38">
-        <v>0</v>
-      </c>
-      <c r="D149" s="38">
+      <c r="C149" s="31">
+        <v>0</v>
+      </c>
+      <c r="D149" s="31">
         <v>96.5</v>
       </c>
-      <c r="E149" s="38">
+      <c r="E149" s="31">
         <v>48.62</v>
       </c>
-      <c r="F149" s="38">
+      <c r="F149" s="31">
         <v>61.09</v>
       </c>
-      <c r="G149" s="38" t="s">
+      <c r="G149" s="31" t="s">
         <v>284</v>
       </c>
       <c r="I149" s="29"/>
@@ -15655,73 +15655,73 @@
       <c r="I150" s="29"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="52" t="s">
+      <c r="A151" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B151" s="53">
+      <c r="B151" s="46">
         <v>45038</v>
       </c>
-      <c r="C151" s="38">
-        <v>0</v>
-      </c>
-      <c r="D151" s="38">
+      <c r="C151" s="31">
+        <v>0</v>
+      </c>
+      <c r="D151" s="31">
         <v>96.4</v>
       </c>
-      <c r="E151" s="38">
+      <c r="E151" s="31">
         <v>55.45</v>
       </c>
-      <c r="F151" s="38">
+      <c r="F151" s="31">
         <v>63.54</v>
       </c>
-      <c r="G151" s="38" t="s">
+      <c r="G151" s="31" t="s">
         <v>285</v>
       </c>
       <c r="I151" s="29"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="52" t="s">
+      <c r="A152" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="B152" s="53">
+      <c r="B152" s="46">
         <v>45038</v>
       </c>
-      <c r="C152" s="38">
-        <v>0</v>
-      </c>
-      <c r="D152" s="38">
+      <c r="C152" s="31">
+        <v>0</v>
+      </c>
+      <c r="D152" s="31">
         <v>96.3</v>
       </c>
-      <c r="E152" s="38">
+      <c r="E152" s="31">
         <v>58.69</v>
       </c>
-      <c r="F152" s="38">
+      <c r="F152" s="31">
         <v>65.97</v>
       </c>
-      <c r="G152" s="38" t="s">
+      <c r="G152" s="31" t="s">
         <v>287</v>
       </c>
       <c r="I152" s="29"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="52" t="s">
+      <c r="A153" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="B153" s="53">
+      <c r="B153" s="46">
         <v>45038</v>
       </c>
-      <c r="C153" s="38">
-        <v>0</v>
-      </c>
-      <c r="D153" s="38">
+      <c r="C153" s="31">
+        <v>0</v>
+      </c>
+      <c r="D153" s="31">
         <v>96.3</v>
       </c>
-      <c r="E153" s="38">
+      <c r="E153" s="31">
         <v>58.54</v>
       </c>
-      <c r="F153" s="38">
+      <c r="F153" s="31">
         <v>65.569999999999993</v>
       </c>
-      <c r="G153" s="38" t="s">
+      <c r="G153" s="31" t="s">
         <v>289</v>
       </c>
       <c r="I153" s="29"/>
@@ -15751,49 +15751,49 @@
       <c r="I154" s="29"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="50" t="s">
+      <c r="A155" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B155" s="51">
+      <c r="B155" s="44">
         <v>45037</v>
       </c>
-      <c r="C155" s="38">
-        <v>0</v>
-      </c>
-      <c r="D155" s="38">
+      <c r="C155" s="31">
+        <v>0</v>
+      </c>
+      <c r="D155" s="31">
         <v>96</v>
       </c>
-      <c r="E155" s="38">
+      <c r="E155" s="31">
         <v>63.73</v>
       </c>
-      <c r="F155" s="38">
+      <c r="F155" s="31">
         <v>73.72</v>
       </c>
-      <c r="G155" s="38" t="s">
+      <c r="G155" s="31" t="s">
         <v>290</v>
       </c>
       <c r="I155" s="29"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="50" t="s">
+      <c r="A156" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B156" s="51">
+      <c r="B156" s="44">
         <v>45037</v>
       </c>
-      <c r="C156" s="38">
-        <v>0</v>
-      </c>
-      <c r="D156" s="38">
+      <c r="C156" s="31">
+        <v>0</v>
+      </c>
+      <c r="D156" s="31">
         <v>95.7</v>
       </c>
-      <c r="E156" s="38">
+      <c r="E156" s="31">
         <v>70.52</v>
       </c>
-      <c r="F156" s="38">
+      <c r="F156" s="31">
         <v>77.88</v>
       </c>
-      <c r="G156" s="38" t="s">
+      <c r="G156" s="31" t="s">
         <v>291</v>
       </c>
       <c r="I156" s="29"/>
@@ -15834,10 +15834,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -15853,547 +15853,547 @@
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C3" s="38">
-        <v>0</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="C3" s="31">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31">
         <v>93.8</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="31">
         <v>101.4</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="31">
         <v>72.260000000000005</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="33">
         <v>106.28000000000002</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="33">
         <v>74.303333333333342</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C4" s="38">
-        <v>0</v>
-      </c>
-      <c r="D4" s="38">
+      <c r="C4" s="31">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
         <v>93.7</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="31">
         <v>108.2</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="31">
         <v>74.290000000000006</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="33">
         <v>115.20499999999998</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="33">
         <v>62.445</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C5" s="38">
-        <v>0</v>
-      </c>
-      <c r="D5" s="38">
+      <c r="C5" s="31">
+        <v>0</v>
+      </c>
+      <c r="D5" s="31">
         <v>93.7</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="31">
         <v>109.24</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="31">
         <v>76.36</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="33">
         <v>118.6825</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="33">
         <v>78.204999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C6" s="38">
-        <v>0</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="C6" s="31">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31">
         <v>92.2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="31">
         <v>112.57</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="31">
         <v>62.99</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="33">
         <v>73.134999999999991</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="33">
         <v>62.120000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="C7" s="31">
+        <v>0</v>
+      </c>
+      <c r="D7" s="31">
         <v>91.9</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="31">
         <v>113.62</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="31">
         <v>61.82</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="33">
         <v>110.62</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="33">
         <v>77.547499999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="C8" s="31">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
         <v>91.8</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="31">
         <v>116.35</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="31">
         <v>62.19</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="33">
         <v>109.985</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="33">
         <v>67.069999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C9" s="38">
-        <v>0</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="C9" s="31">
+        <v>0</v>
+      </c>
+      <c r="D9" s="31">
         <v>91.7</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="31">
         <v>118.28</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="31">
         <v>62.78</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="31" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C10" s="38">
-        <v>0</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
         <v>92.8</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="31">
         <v>114.76</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="31">
         <v>81.010000000000005</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="31" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C11" s="38">
-        <v>0</v>
-      </c>
-      <c r="D11" s="38">
+      <c r="C11" s="31">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
         <v>92.6</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="31">
         <v>112.26</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="31">
         <v>75.06</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="31" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C12" s="38">
-        <v>0</v>
-      </c>
-      <c r="D12" s="38">
+      <c r="C12" s="31">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
         <v>92.6</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="31">
         <v>123.07</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="31">
         <v>80.55</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="31" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C13" s="38">
-        <v>0</v>
-      </c>
-      <c r="D13" s="38">
+      <c r="C13" s="31">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31">
         <v>92.1</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="31">
         <v>124.64</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="31">
         <v>76.2</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="31" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C14" s="38">
-        <v>0</v>
-      </c>
-      <c r="D14" s="38">
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31">
         <v>94.4</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="31">
         <v>74.45</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="31">
         <v>64.95</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="31" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C15" s="38">
-        <v>0</v>
-      </c>
-      <c r="D15" s="38">
+      <c r="C15" s="31">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31">
         <v>94</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="31">
         <v>71.58</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="31">
         <v>58.94</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="31" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C16" s="38">
-        <v>0</v>
-      </c>
-      <c r="D16" s="38">
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
         <v>93.9</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="31">
         <v>72.819999999999993</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="31">
         <v>61.23</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="31" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="32">
         <v>45029.777777777781</v>
       </c>
-      <c r="C17" s="38">
-        <v>0</v>
-      </c>
-      <c r="D17" s="38">
+      <c r="C17" s="31">
+        <v>0</v>
+      </c>
+      <c r="D17" s="31">
         <v>94</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="31">
         <v>73.69</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="31">
         <v>63.36</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="31" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="32">
         <v>45033.729166666664</v>
       </c>
-      <c r="C18" s="38">
-        <v>0</v>
-      </c>
-      <c r="D18" s="38">
+      <c r="C18" s="31">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31">
         <v>93.4</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="31">
         <v>102.45</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="31">
         <v>76.41</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="32">
         <v>45033.729166666664</v>
       </c>
-      <c r="C19" s="38">
-        <v>0</v>
-      </c>
-      <c r="D19" s="38">
+      <c r="C19" s="31">
+        <v>0</v>
+      </c>
+      <c r="D19" s="31">
         <v>93.1</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="31">
         <v>112.65</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="31">
         <v>79.67</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="31" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="32">
         <v>45033.729166666664</v>
       </c>
-      <c r="C20" s="38">
-        <v>0</v>
-      </c>
-      <c r="D20" s="38">
+      <c r="C20" s="31">
+        <v>0</v>
+      </c>
+      <c r="D20" s="31">
         <v>92.9</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="31">
         <v>116.13</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="31">
         <v>78.94</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="31" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="32">
         <v>45033.729166666664</v>
       </c>
-      <c r="C21" s="38">
-        <v>0</v>
-      </c>
-      <c r="D21" s="38">
+      <c r="C21" s="31">
+        <v>0</v>
+      </c>
+      <c r="D21" s="31">
         <v>92.8</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="31">
         <v>111.25</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="31">
         <v>75.17</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="31" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="32">
         <v>45033.729166666664</v>
       </c>
-      <c r="C22" s="38">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="C22" s="31">
+        <v>0</v>
+      </c>
+      <c r="D22" s="31">
         <v>93.6</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="31">
         <v>108.11</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="31">
         <v>67.930000000000007</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="31" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="32">
         <v>45033.729166666664</v>
       </c>
-      <c r="C23" s="38">
-        <v>0</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="C23" s="31">
+        <v>0</v>
+      </c>
+      <c r="D23" s="31">
         <v>93.1</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="31">
         <v>111.86</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="31">
         <v>66.209999999999994</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="31" t="s">
         <v>333</v>
       </c>
     </row>

--- a/GSD/Water Samples/LaJara_LISST_GSD_Spring2023.xlsx
+++ b/GSD/Water Samples/LaJara_LISST_GSD_Spring2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\Water Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD797D4F-2328-4168-B51C-71503CDA0D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC84C11-3F38-432A-A36E-A2C0523A5398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99C89BF0-5701-4EDE-976A-2DC8AC06B2E1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="455">
   <si>
     <t>-</t>
   </si>
@@ -1391,6 +1391,21 @@
   </si>
   <si>
     <t>GSSIDE</t>
+  </si>
+  <si>
+    <t>Turb</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1755,6 +1770,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5454,16 +5471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10087,10 +10104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47770336-139B-4E1D-B90D-A41F00945441}">
-  <dimension ref="A2:P156"/>
+  <dimension ref="A2:W156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R79" sqref="R79"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10112,8 +10129,12 @@
     <col min="15" max="15" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>6</v>
       </c>
@@ -10158,7 +10179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -10205,7 +10226,7 @@
         <v>81.800000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -10252,7 +10273,7 @@
         <v>51.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
@@ -10299,7 +10320,7 @@
         <v>91.46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
@@ -10349,7 +10370,7 @@
         <v>58.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
@@ -10396,8 +10417,11 @@
       <c r="P8" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
@@ -10444,8 +10468,11 @@
       <c r="P9" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>5.7697015333333299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
@@ -10493,7 +10520,7 @@
         <v>56.024999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
@@ -10541,7 +10568,7 @@
         <v>66.137500000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
@@ -10589,7 +10616,7 @@
         <v>57.156666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
@@ -10637,7 +10664,7 @@
         <v>47.137500000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>27</v>
       </c>
@@ -10684,8 +10711,11 @@
       <c r="P14" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>10.820681333333299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
@@ -10732,8 +10762,11 @@
       <c r="P15" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>16.381029333333299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>29</v>
       </c>
@@ -10781,7 +10814,7 @@
         <v>38.814999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>30</v>
       </c>
@@ -10829,7 +10862,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>40</v>
       </c>
@@ -10876,8 +10909,11 @@
       <c r="P18" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="58">
+        <v>11.302605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>41</v>
       </c>
@@ -10924,8 +10960,11 @@
       <c r="P19" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="58">
+        <v>12.379865893333299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>42</v>
       </c>
@@ -10972,8 +11011,18 @@
       <c r="P20" s="34">
         <v>58.21</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>451</v>
+      </c>
+      <c r="T20">
+        <f>MIN(W20:W68)</f>
+        <v>4.5956702079999996</v>
+      </c>
+      <c r="W20">
+        <v>5.7697015333333299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>43</v>
       </c>
@@ -11020,8 +11069,21 @@
       <c r="P21" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>7.9286783333333304</v>
+      </c>
+      <c r="S21" t="s">
+        <v>452</v>
+      </c>
+      <c r="T21">
+        <f>MAX(W20:W68)</f>
+        <v>20.852958666666598</v>
+      </c>
+      <c r="W21">
+        <v>10.820681333333299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
@@ -11068,8 +11130,21 @@
       <c r="P22" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>9.2900002666666595</v>
+      </c>
+      <c r="S22" t="s">
+        <v>453</v>
+      </c>
+      <c r="T22">
+        <f>AVERAGE(W20:W68)</f>
+        <v>9.3374502056394419</v>
+      </c>
+      <c r="W22">
+        <v>16.381029333333299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>45</v>
       </c>
@@ -11116,8 +11191,18 @@
       <c r="P23" s="34">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>454</v>
+      </c>
+      <c r="T23">
+        <f>MEDIAN(W20:W68)</f>
+        <v>8.70769666666666</v>
+      </c>
+      <c r="W23" s="58">
+        <v>11.302605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>47</v>
       </c>
@@ -11164,8 +11249,14 @@
       <c r="P24" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>10.3409056666666</v>
+      </c>
+      <c r="W24" s="58">
+        <v>12.379865893333299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>48</v>
       </c>
@@ -11212,8 +11303,11 @@
       <c r="P25" s="34">
         <v>80.920000000000016</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>7.9286783333333304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>51</v>
       </c>
@@ -11262,8 +11356,14 @@
       <c r="P26" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>6.6124433333333297</v>
+      </c>
+      <c r="W26">
+        <v>9.2900002666666595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>52</v>
       </c>
@@ -11310,8 +11410,11 @@
       <c r="P27" s="34">
         <v>65.026666666666657</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>10.3409056666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
@@ -11358,8 +11461,11 @@
       <c r="P28" s="34">
         <v>59.204999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>6.6124433333333297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>59</v>
       </c>
@@ -11406,8 +11512,14 @@
       <c r="P29" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>6.3972824666666597</v>
+      </c>
+      <c r="W29">
+        <v>6.3972824666666597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>61</v>
       </c>
@@ -11454,8 +11566,14 @@
       <c r="P30" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>6.9635272666666603</v>
+      </c>
+      <c r="W30">
+        <v>6.9635272666666603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>62</v>
       </c>
@@ -11502,8 +11620,14 @@
       <c r="P31" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>11.1684686666666</v>
+      </c>
+      <c r="W31">
+        <v>11.1684686666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>63</v>
       </c>
@@ -11550,8 +11674,14 @@
       <c r="P32" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>8.2048614000000004</v>
+      </c>
+      <c r="W32">
+        <v>8.2048614000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>67</v>
       </c>
@@ -11597,8 +11727,11 @@
       <c r="P33" s="34">
         <v>69.806666666666658</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>6.5715940000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>69</v>
       </c>
@@ -11647,8 +11780,14 @@
       <c r="P34" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>6.5715940000000002</v>
+      </c>
+      <c r="W34" s="59">
+        <v>7.3385368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>71</v>
       </c>
@@ -11694,8 +11833,11 @@
       <c r="P35" s="34">
         <v>59.133333333333333</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>8.66325026666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>75</v>
       </c>
@@ -11744,8 +11886,11 @@
       <c r="P36" s="34">
         <v>48.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>10.072311133333301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>77</v>
       </c>
@@ -11791,8 +11936,11 @@
       <c r="P37" s="34">
         <v>25.344999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>6.9584305310000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>80</v>
       </c>
@@ -11838,8 +11986,14 @@
       <c r="P38" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="59">
+        <v>7.3385368</v>
+      </c>
+      <c r="W38">
+        <v>6.6294694666666603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>81</v>
       </c>
@@ -11885,8 +12039,14 @@
       <c r="P39" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>8.66325026666666</v>
+      </c>
+      <c r="W39">
+        <v>5.5344294666666602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>83</v>
       </c>
@@ -11932,8 +12092,14 @@
       <c r="P40" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>10.072311133333301</v>
+      </c>
+      <c r="W40">
+        <v>5.7944035333333304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>85</v>
       </c>
@@ -11979,8 +12145,14 @@
       <c r="P41" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>6.9584305310000003</v>
+      </c>
+      <c r="W41">
+        <v>6.8484111333333297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -12026,8 +12198,14 @@
       <c r="P42" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>6.6294694666666603</v>
+      </c>
+      <c r="W42">
+        <v>8.7752321066666603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
@@ -12073,8 +12251,14 @@
       <c r="P43" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>5.5344294666666602</v>
+      </c>
+      <c r="W43">
+        <v>8.5553027999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>89</v>
       </c>
@@ -12120,8 +12304,14 @@
       <c r="P44" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>5.7944035333333304</v>
+      </c>
+      <c r="W44">
+        <v>8.3964748666666598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -12167,8 +12357,14 @@
       <c r="P45" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>6.8484111333333297</v>
+      </c>
+      <c r="W45">
+        <v>11.483500266666599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>77</v>
       </c>
@@ -12214,8 +12410,14 @@
       <c r="P46" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>8.7752321066666603</v>
+      </c>
+      <c r="W46">
+        <v>5.4046995333333303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -12261,8 +12463,14 @@
       <c r="P47" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>8.5553027999999998</v>
+      </c>
+      <c r="W47" s="59">
+        <v>5.62346873333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>99</v>
       </c>
@@ -12308,8 +12516,14 @@
       <c r="P48" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>8.3964748666666598</v>
+      </c>
+      <c r="W48">
+        <v>6.59702113333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>101</v>
       </c>
@@ -12355,8 +12569,14 @@
       <c r="P49" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>11.483500266666599</v>
+      </c>
+      <c r="W49">
+        <v>4.8982727333333296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>102</v>
       </c>
@@ -12402,8 +12622,14 @@
       <c r="P50" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>5.4046995333333303</v>
+      </c>
+      <c r="W50">
+        <v>12.434267999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>104</v>
       </c>
@@ -12449,8 +12675,11 @@
       <c r="P51" s="34">
         <v>47.98</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>8.70769666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>106</v>
       </c>
@@ -12496,8 +12725,14 @@
       <c r="P52" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="59">
+        <v>5.62346873333333</v>
+      </c>
+      <c r="W52">
+        <v>10.258584000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -12543,8 +12778,14 @@
       <c r="P53" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>6.59702113333333</v>
+      </c>
+      <c r="W53">
+        <v>7.5019323999999896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>115</v>
       </c>
@@ -12590,8 +12831,14 @@
       <c r="P54" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>4.8982727333333296</v>
+      </c>
+      <c r="W54">
+        <v>20.852958666666598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>123</v>
       </c>
@@ -12637,8 +12884,14 @@
       <c r="P55" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>12.434267999999999</v>
+      </c>
+      <c r="W55">
+        <v>12.526063343999899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>106</v>
       </c>
@@ -12684,8 +12937,14 @@
       <c r="P56" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>8.70769666666666</v>
+      </c>
+      <c r="W56">
+        <v>9.3400750666666603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>62</v>
       </c>
@@ -12731,8 +12990,14 @@
       <c r="P57" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>10.258584000000001</v>
+      </c>
+      <c r="W57">
+        <v>12.602335333333301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
@@ -12778,8 +13043,14 @@
       <c r="P58" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>7.5019323999999896</v>
+      </c>
+      <c r="W58">
+        <v>20.458221333333299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>115</v>
       </c>
@@ -12825,8 +13096,11 @@
       <c r="P59" s="34">
         <v>79.88</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>12.6200733333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>133</v>
       </c>
@@ -12872,8 +13146,11 @@
       <c r="P60" s="34">
         <v>53.17</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>8.4514112000000008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>140</v>
       </c>
@@ -12919,8 +13196,14 @@
       <c r="P61" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>20.852958666666598</v>
+      </c>
+      <c r="W61">
+        <v>10.38581286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>102</v>
       </c>
@@ -12966,8 +13249,14 @@
       <c r="P62" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>12.526063343999899</v>
+      </c>
+      <c r="W62">
+        <v>8.9650455999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>51</v>
       </c>
@@ -13013,8 +13302,14 @@
       <c r="P63" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>9.3400750666666603</v>
+      </c>
+      <c r="W63">
+        <v>12.044964</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>95</v>
       </c>
@@ -13060,8 +13355,14 @@
       <c r="P64" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>12.602335333333301</v>
+      </c>
+      <c r="W64">
+        <v>11.1430651333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>142</v>
       </c>
@@ -13107,8 +13408,11 @@
       <c r="P65" s="34">
         <v>87.02</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>7.3809661999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>9</v>
       </c>
@@ -13154,8 +13458,14 @@
       <c r="P66" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>20.458221333333299</v>
+      </c>
+      <c r="W66">
+        <v>10.366192399999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>102</v>
       </c>
@@ -13201,8 +13511,14 @@
       <c r="P67" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>12.6200733333333</v>
+      </c>
+      <c r="W67">
+        <v>4.5956702079999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>9</v>
       </c>
@@ -13248,8 +13564,14 @@
       <c r="P68" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>8.4514112000000008</v>
+      </c>
+      <c r="W68">
+        <v>9.1948653333333308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>87</v>
       </c>
@@ -13295,8 +13617,11 @@
       <c r="P69" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>10.38581286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>88</v>
       </c>
@@ -13342,8 +13667,11 @@
       <c r="P70" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>8.9650455999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>142</v>
       </c>
@@ -13390,7 +13718,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>104</v>
       </c>
@@ -13437,7 +13765,7 @@
         <v>49.949999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>89</v>
       </c>
@@ -13483,8 +13811,11 @@
       <c r="P73" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>12.044964</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>81</v>
       </c>
@@ -13531,7 +13862,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>87</v>
       </c>
@@ -13577,8 +13908,11 @@
       <c r="P75" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>11.1430651333333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>152</v>
       </c>
@@ -13624,8 +13958,11 @@
       <c r="P76" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>7.3809661999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>115</v>
       </c>
@@ -13672,7 +14009,7 @@
         <v>133.34</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>102</v>
       </c>
@@ -13718,8 +14055,11 @@
       <c r="P78" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>10.366192399999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>51</v>
       </c>
@@ -13766,7 +14106,7 @@
         <v>79.66</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>113</v>
       </c>
@@ -13813,7 +14153,7 @@
         <v>30.57</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>95</v>
       </c>
@@ -13860,7 +14200,7 @@
         <v>26.823333333333334</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>95</v>
       </c>
@@ -13907,7 +14247,7 @@
         <v>113.11</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>104</v>
       </c>
@@ -13953,8 +14293,11 @@
       <c r="P83" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>4.5956702079999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>133</v>
       </c>
@@ -14001,7 +14344,7 @@
         <v>93.39</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>101</v>
       </c>
@@ -14048,7 +14391,7 @@
         <v>44.193333333333328</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>77</v>
       </c>
@@ -14094,8 +14437,11 @@
       <c r="P86" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>9.1948653333333308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>10</v>
       </c>
@@ -14142,7 +14488,7 @@
         <v>50.42</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>8</v>
       </c>
@@ -14166,7 +14512,7 @@
       </c>
       <c r="I88" s="29"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>155</v>
       </c>
@@ -14190,7 +14536,7 @@
       </c>
       <c r="I89" s="29"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
@@ -14214,7 +14560,7 @@
       </c>
       <c r="I90" s="29"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>156</v>
       </c>
@@ -14238,7 +14584,7 @@
       </c>
       <c r="I91" s="29"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>123</v>
       </c>
@@ -14262,7 +14608,7 @@
       </c>
       <c r="I92" s="29"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>142</v>
       </c>
@@ -14286,7 +14632,7 @@
       </c>
       <c r="I93" s="29"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="50" t="s">
         <v>69</v>
       </c>
@@ -14310,7 +14656,7 @@
       </c>
       <c r="I94" s="29"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="50" t="s">
         <v>71</v>
       </c>
@@ -14334,7 +14680,7 @@
       </c>
       <c r="I95" s="29"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
         <v>75</v>
       </c>
